--- a/backend/assets/Alfonso - Template.xlsx
+++ b/backend/assets/Alfonso - Template.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_4F90841667232450C25E8038A20948D41291E588" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C82B5429-F1E7-44EC-A04A-ECFA82FE3031}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9183EECD-F92C-4C70-919C-0EDE4BED8BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timesheet" sheetId="1" r:id="rId1"/>
@@ -66,23 +71,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="269">
   <si>
     <t>FOREMAN DAILY TIMESHEET</t>
   </si>
@@ -120,45 +114,7 @@
     <t>PE:</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">FOREMAN: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>ALFONSO</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">APPROVED BY: </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">SUPER: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>OSCAR</t>
-    </r>
   </si>
   <si>
     <t>EMP #</t>
@@ -212,16 +168,7 @@
     <t>Alfredo Perez-Vasquez</t>
   </si>
   <si>
-    <t>Fanny Reyes</t>
-  </si>
-  <si>
     <t>Walter Navas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel López </t>
-  </si>
-  <si>
-    <t>Walter castañada</t>
   </si>
   <si>
     <t>EQUIPMENT:</t>
@@ -241,21 +188,6 @@
   </si>
   <si>
     <t>S.B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chevy </t>
-  </si>
-  <si>
-    <t>Service Truck</t>
-  </si>
-  <si>
-    <t>Mini Dump</t>
-  </si>
-  <si>
-    <t>Backhoe</t>
-  </si>
-  <si>
-    <t>Rolle</t>
   </si>
   <si>
     <t>WORK PERFORMED</t>
@@ -954,6 +886,15 @@
 Alfonso's timesheet for {date} has been submitted and approved. 
 Thanks,
 M. Luis IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOREMAN: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPER: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1909,49 +1850,287 @@
     <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1966,247 +2145,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2582,400 +2523,394 @@
   </sheetPr>
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="22" width="4.42578125" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" customWidth="1"/>
+    <col min="5" max="22" width="4.44140625" customWidth="1"/>
+    <col min="23" max="23" width="11.88671875" customWidth="1"/>
     <col min="24" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="139" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="139" t="s">
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="142" t="s">
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="143" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="144"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="53"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A2" s="145"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="146"/>
-      <c r="U2" s="146"/>
-      <c r="V2" s="146"/>
-      <c r="W2" s="150"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="164"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="19.5" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="168" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="139" t="s">
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="140"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="151" t="s">
+      <c r="G3" s="112"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="78" t="s">
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="148"/>
-      <c r="P3" s="148"/>
-      <c r="Q3" s="148"/>
-      <c r="R3" s="149"/>
-      <c r="S3" s="152" t="s">
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="153"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="84"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="16.5" customHeight="1">
       <c r="A4" s="41"/>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="146"/>
-      <c r="P4" s="146"/>
-      <c r="Q4" s="146"/>
-      <c r="R4" s="147"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="146"/>
-      <c r="U4" s="146"/>
-      <c r="V4" s="146"/>
-      <c r="W4" s="150"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="164"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" customHeight="1">
       <c r="A5" s="41"/>
-      <c r="B5" s="148"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="154" t="s">
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
-      <c r="L5" s="155"/>
-      <c r="M5" s="155"/>
-      <c r="N5" s="155"/>
-      <c r="O5" s="156"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="69"/>
       <c r="P5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="80" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="156"/>
-      <c r="S5" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="146"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="146"/>
-      <c r="W5" s="150"/>
+      <c r="Q5" s="165"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="166" t="s">
+        <v>266</v>
+      </c>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="164"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="19.5" customHeight="1">
       <c r="A6" s="41"/>
-      <c r="B6" s="157"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="159"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="159"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="76" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="160"/>
-      <c r="S6" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="T6" s="159"/>
-      <c r="U6" s="159"/>
-      <c r="V6" s="159"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="160" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="160" t="s">
+        <v>267</v>
+      </c>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
       <c r="W6" s="161"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="12" customHeight="1">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="146" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="148" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="F7" s="133"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="154"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="140"/>
+      <c r="R7" s="133"/>
+      <c r="S7" s="140"/>
+      <c r="T7" s="133"/>
+      <c r="U7" s="140"/>
+      <c r="V7" s="133"/>
+      <c r="W7" s="143" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="138"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="138"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="138"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="138"/>
-      <c r="W7" s="96" t="s">
-        <v>18</v>
       </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="12" customHeight="1">
-      <c r="A8" s="162"/>
-      <c r="B8" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="164"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="164"/>
-      <c r="N8" s="149"/>
-      <c r="O8" s="164"/>
-      <c r="P8" s="149"/>
-      <c r="Q8" s="164"/>
-      <c r="R8" s="149"/>
-      <c r="S8" s="164"/>
-      <c r="T8" s="149"/>
-      <c r="U8" s="164"/>
-      <c r="V8" s="149"/>
-      <c r="W8" s="165"/>
+      <c r="A8" s="147"/>
+      <c r="B8" s="134" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="141"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="141"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="141"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="141"/>
+      <c r="T8" s="122"/>
+      <c r="U8" s="141"/>
+      <c r="V8" s="122"/>
+      <c r="W8" s="144"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="10.5" customHeight="1">
-      <c r="A9" s="162"/>
-      <c r="B9" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="166"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="166"/>
-      <c r="P9" s="147"/>
-      <c r="Q9" s="166"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="166"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="166"/>
-      <c r="V9" s="147"/>
-      <c r="W9" s="167"/>
+      <c r="A9" s="147"/>
+      <c r="B9" s="136" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="142"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="142"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="142"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="142"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="142"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="145"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A10" s="162"/>
+      <c r="A10" s="147"/>
       <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="F10" s="113"/>
+      <c r="G10" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="141"/>
-      <c r="G10" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="141"/>
-      <c r="I10" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="141"/>
-      <c r="K10" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="141"/>
-      <c r="M10" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="141"/>
-      <c r="O10" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="141"/>
-      <c r="Q10" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="R10" s="141"/>
-      <c r="S10" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="T10" s="141"/>
-      <c r="U10" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="V10" s="141"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="113"/>
+      <c r="K10" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="113"/>
+      <c r="M10" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="113"/>
+      <c r="O10" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="113"/>
+      <c r="S10" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" s="113"/>
+      <c r="U10" s="137" t="s">
+        <v>22</v>
+      </c>
+      <c r="V10" s="113"/>
       <c r="W10" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="18" customHeight="1">
-      <c r="A11" s="58">
+      <c r="A11" s="109" t="str">
         <f>IFERROR(VLOOKUP(B11,'Employee Numbers'!A1:B125,2,FALSE),"")</f>
-        <v>177</v>
-      </c>
-      <c r="B11" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="95">
-        <v>400</v>
-      </c>
-      <c r="F11" s="138"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="138"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="138"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="138"/>
-      <c r="S11" s="89"/>
-      <c r="T11" s="138"/>
-      <c r="U11" s="89"/>
-      <c r="V11" s="138"/>
-      <c r="W11" s="53">
+        <v/>
+      </c>
+      <c r="B11" s="138"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="132"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="132"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="132"/>
+      <c r="V11" s="133"/>
+      <c r="W11" s="126">
         <f>SUM(G11:V12)</f>
         <v>0</v>
       </c>
@@ -2984,64 +2919,60 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="18" customHeight="1">
-      <c r="A12" s="168"/>
-      <c r="B12" s="169"/>
-      <c r="C12" s="157"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="169"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="169"/>
-      <c r="J12" s="158"/>
-      <c r="K12" s="169"/>
-      <c r="L12" s="158"/>
-      <c r="M12" s="169"/>
-      <c r="N12" s="158"/>
-      <c r="O12" s="169"/>
-      <c r="P12" s="158"/>
-      <c r="Q12" s="169"/>
-      <c r="R12" s="158"/>
-      <c r="S12" s="169"/>
-      <c r="T12" s="158"/>
-      <c r="U12" s="169"/>
-      <c r="V12" s="158"/>
-      <c r="W12" s="170"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="114"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="80"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="80"/>
+      <c r="W12" s="127"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="18" customHeight="1">
-      <c r="A13" s="58">
+      <c r="A13" s="109" t="str">
         <f>IFERROR(VLOOKUP(B13,'Employee Numbers'!A1:B125,2,FALSE),"")</f>
-        <v>1384</v>
-      </c>
-      <c r="B13" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="148"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="97">
-        <v>203</v>
-      </c>
-      <c r="F13" s="147"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="147"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="147"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="56">
+        <v/>
+      </c>
+      <c r="B13" s="121"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="124"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="124"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="124"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="128">
         <f>SUM(G13:V14)</f>
         <v>0</v>
       </c>
@@ -3050,66 +2981,60 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="18" customHeight="1">
-      <c r="A14" s="168"/>
-      <c r="B14" s="169"/>
-      <c r="C14" s="157"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="98">
-        <v>113</v>
-      </c>
-      <c r="F14" s="160"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="160"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="160"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="160"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="160"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="160"/>
-      <c r="W14" s="170"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="120"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="120"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="127"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="18" customHeight="1">
-      <c r="A15" s="58">
+      <c r="A15" s="109" t="str">
         <f>IFERROR(VLOOKUP(B15,'Employee Numbers'!A1:B125,2,FALSE),"")</f>
-        <v>1308</v>
-      </c>
-      <c r="B15" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="148"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="79">
-        <v>109</v>
-      </c>
-      <c r="F15" s="147"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="147"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="147"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="147"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="147"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="147"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="147"/>
-      <c r="W15" s="53">
+        <v/>
+      </c>
+      <c r="B15" s="129"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="116"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="116"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="116"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="116"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="126">
         <f>SUM(G15:V16)</f>
         <v>0</v>
       </c>
@@ -3118,66 +3043,60 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="18" customHeight="1">
-      <c r="A16" s="168"/>
-      <c r="B16" s="169"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="99">
-        <v>113</v>
-      </c>
-      <c r="F16" s="160"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="160"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="160"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="160"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="160"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="160"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="160"/>
-      <c r="W16" s="170"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="118"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="127"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="18" customHeight="1">
-      <c r="A17" s="58">
+      <c r="A17" s="109" t="str">
         <f>IFERROR(VLOOKUP(B17,'Employee Numbers'!A1:B125,2,FALSE),"")</f>
-        <v>1728</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="148"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="97">
-        <v>109</v>
-      </c>
-      <c r="F17" s="147"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="147"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="147"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="147"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="147"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="147"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="147"/>
-      <c r="W17" s="56">
+        <v/>
+      </c>
+      <c r="B17" s="121"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="124"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="124"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="124"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="124"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="128">
         <f>SUM(G17:V18)</f>
         <v>0</v>
       </c>
@@ -3186,66 +3105,60 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="18" customHeight="1">
-      <c r="A18" s="168"/>
-      <c r="B18" s="169"/>
-      <c r="C18" s="157"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="98">
-        <v>113</v>
-      </c>
-      <c r="F18" s="160"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="160"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="160"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="160"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="160"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="160"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="160"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="160"/>
-      <c r="W18" s="170"/>
+      <c r="A18" s="110"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="120"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="120"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="120"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="127"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="18" customHeight="1">
-      <c r="A19" s="58">
+      <c r="A19" s="109" t="str">
         <f>IFERROR(VLOOKUP(B19,'Employee Numbers'!A1:B125,2,FALSE),"")</f>
-        <v>1319</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="148"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="79">
-        <v>109</v>
-      </c>
-      <c r="F19" s="147"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="147"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="147"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="147"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="147"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="147"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="147"/>
-      <c r="W19" s="53">
+        <v/>
+      </c>
+      <c r="B19" s="129"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="116"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="116"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="116"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="126">
         <f>SUM(G19:V20)</f>
         <v>0</v>
       </c>
@@ -3254,66 +3167,60 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="18" customHeight="1">
-      <c r="A20" s="168"/>
-      <c r="B20" s="169"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="99">
-        <v>113</v>
-      </c>
-      <c r="F20" s="160"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="160"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="160"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="160"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="160"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="160"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="160"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="160"/>
-      <c r="W20" s="170"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="127"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="18" customHeight="1">
-      <c r="A21" s="58">
+      <c r="A21" s="109" t="str">
         <f>IFERROR(VLOOKUP(B21,'Employee Numbers'!A1:B125,2,FALSE),"")</f>
-        <v>1927</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="97">
-        <v>121</v>
-      </c>
-      <c r="F21" s="147"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="147"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="147"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="147"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="147"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="147"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="147"/>
-      <c r="W21" s="56">
+        <v/>
+      </c>
+      <c r="B21" s="121"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="124"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="124"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="124"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="124"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="124"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="128">
         <f>SUM(G21:V22)</f>
         <v>0</v>
       </c>
@@ -3322,66 +3229,60 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="18" customHeight="1">
-      <c r="A22" s="168"/>
-      <c r="B22" s="169"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="98">
-        <v>113</v>
-      </c>
-      <c r="F22" s="160"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="160"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="160"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="160"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="160"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="160"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="160"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="160"/>
-      <c r="W22" s="170"/>
+      <c r="A22" s="110"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="120"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="120"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="120"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="127"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="18" customHeight="1">
-      <c r="A23" s="58">
+      <c r="A23" s="109" t="str">
         <f>IFERROR(VLOOKUP(B23,'Employee Numbers'!A1:B125,2,FALSE),"")</f>
-        <v>1021</v>
-      </c>
-      <c r="B23" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="148"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="79">
-        <v>121</v>
-      </c>
-      <c r="F23" s="147"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="147"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="147"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="147"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="147"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="147"/>
-      <c r="U23" s="57"/>
-      <c r="V23" s="147"/>
-      <c r="W23" s="53">
+        <v/>
+      </c>
+      <c r="B23" s="129"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="116"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="116"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="116"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="116"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="126">
         <f>SUM(G23:V24)</f>
         <v>0</v>
       </c>
@@ -3390,66 +3291,60 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="18" customHeight="1">
-      <c r="A24" s="168"/>
-      <c r="B24" s="169"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="99">
-        <v>113</v>
-      </c>
-      <c r="F24" s="160"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="160"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="160"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="160"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="160"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="160"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="160"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="160"/>
-      <c r="W24" s="170"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="118"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="127"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="18" customHeight="1">
-      <c r="A25" s="58" t="str">
+      <c r="A25" s="109" t="str">
         <f>IFERROR(VLOOKUP(B25,'Employee Numbers'!A1:B125,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B25" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="148"/>
-      <c r="D25" s="149"/>
-      <c r="E25" s="63">
-        <v>208</v>
-      </c>
-      <c r="F25" s="147"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="147"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="147"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="147"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="147"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="147"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="147"/>
-      <c r="W25" s="56">
+      <c r="B25" s="121"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="124"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="124"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="124"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="124"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="128">
         <f>SUM(G25:V26)</f>
         <v>0</v>
       </c>
@@ -3458,66 +3353,60 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="18" customHeight="1">
-      <c r="A26" s="168"/>
-      <c r="B26" s="169"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="98">
-        <v>113</v>
-      </c>
-      <c r="F26" s="160"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="160"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="160"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="160"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="160"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="160"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="160"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="160"/>
-      <c r="W26" s="170"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="120"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="120"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="127"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="18" customHeight="1">
-      <c r="A27" s="58">
+      <c r="A27" s="109" t="str">
         <f>IFERROR(VLOOKUP(B27,'Employee Numbers'!A1:B125,2,FALSE),"")</f>
-        <v>1171</v>
-      </c>
-      <c r="B27" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="140"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="60">
-        <v>208</v>
-      </c>
-      <c r="F27" s="147"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="147"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="147"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="147"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="147"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="147"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="147"/>
-      <c r="W27" s="53">
+        <v/>
+      </c>
+      <c r="B27" s="111"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="116"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="116"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="116"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="116"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="116"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="126">
         <f>SUM(G27:V28)</f>
         <v>0</v>
       </c>
@@ -3526,62 +3415,60 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="18" customHeight="1">
-      <c r="A28" s="168"/>
-      <c r="B28" s="169"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="99">
-        <v>113</v>
-      </c>
-      <c r="F28" s="160"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="160"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="160"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="160"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="160"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="160"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="160"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="160"/>
-      <c r="W28" s="170"/>
+      <c r="A28" s="110"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="118"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="118"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="118"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="118"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="118"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="127"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="18" customHeight="1">
-      <c r="A29" s="58" t="str">
+      <c r="A29" s="109" t="str">
         <f>IFERROR(VLOOKUP(B29,'Employee Numbers'!A1:B125,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="147"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="147"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="147"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="147"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="147"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="147"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="147"/>
-      <c r="W29" s="56">
+      <c r="B29" s="121"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="124"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="124"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="124"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="124"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="124"/>
+      <c r="V29" s="66"/>
+      <c r="W29" s="128">
         <f>SUM(G29:V30)</f>
         <v>0</v>
       </c>
@@ -3590,66 +3477,60 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="18" customHeight="1">
-      <c r="A30" s="168"/>
-      <c r="B30" s="169"/>
-      <c r="C30" s="157"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="64">
-        <v>113</v>
-      </c>
-      <c r="F30" s="160"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="160"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="160"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="160"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="160"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="160"/>
-      <c r="S30" s="55"/>
-      <c r="T30" s="160"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="160"/>
-      <c r="W30" s="170"/>
+      <c r="A30" s="110"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="120"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="120"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="120"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="120"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="120"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="127"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="18" customHeight="1">
-      <c r="A31" s="58" t="str">
+      <c r="A31" s="109" t="str">
         <f>IFERROR(VLOOKUP(B31,'Employee Numbers'!A1:B125,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B31" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="148"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="60">
-        <v>208</v>
-      </c>
-      <c r="F31" s="147"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="147"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="147"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="147"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="147"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="147"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="147"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="147"/>
-      <c r="W31" s="53">
+      <c r="B31" s="129"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="116"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="116"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="116"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="116"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="116"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="126">
         <f>SUM(G31:V32)</f>
         <v>0</v>
       </c>
@@ -3658,66 +3539,60 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="18" customHeight="1">
-      <c r="A32" s="168"/>
-      <c r="B32" s="169"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="61">
-        <v>113</v>
-      </c>
-      <c r="F32" s="160"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="160"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="160"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="160"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="160"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="160"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="160"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="160"/>
-      <c r="W32" s="170"/>
+      <c r="A32" s="110"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="118"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="118"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="118"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="118"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="118"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="127"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="18" customHeight="1">
-      <c r="A33" s="58" t="str">
+      <c r="A33" s="109" t="str">
         <f>IFERROR(VLOOKUP(B33,'Employee Numbers'!A1:B125,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="B33" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="148"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="63">
-        <v>208</v>
-      </c>
-      <c r="F33" s="147"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="147"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="147"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="147"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="147"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="147"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="147"/>
-      <c r="W33" s="56">
+      <c r="B33" s="121"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="124"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="124"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="124"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="124"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="124"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="124"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="128">
         <f>SUM(G33:V34)</f>
         <v>0</v>
       </c>
@@ -3726,180 +3601,178 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="18" customHeight="1">
-      <c r="A34" s="168"/>
-      <c r="B34" s="169"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="64">
-        <v>113</v>
-      </c>
-      <c r="F34" s="160"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="160"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="160"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="160"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="160"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="160"/>
-      <c r="S34" s="55"/>
-      <c r="T34" s="160"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="160"/>
-      <c r="W34" s="170"/>
+      <c r="A34" s="110"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="120"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="120"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="120"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="120"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="120"/>
+      <c r="T34" s="63"/>
+      <c r="U34" s="120"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="127"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="18" customHeight="1">
-      <c r="A35" s="58"/>
-      <c r="B35" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="148"/>
-      <c r="D35" s="148"/>
-      <c r="E35" s="148"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="67">
+      <c r="A35" s="109"/>
+      <c r="B35" s="176" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="122"/>
+      <c r="G35" s="175">
         <f>SUM(G11:H34)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="149"/>
-      <c r="I35" s="67">
+      <c r="H35" s="122"/>
+      <c r="I35" s="175">
         <f>SUM(I11:J34)</f>
         <v>0</v>
       </c>
-      <c r="J35" s="149"/>
-      <c r="K35" s="67">
+      <c r="J35" s="122"/>
+      <c r="K35" s="175">
         <f>SUM(K11:L34)</f>
         <v>0</v>
       </c>
-      <c r="L35" s="149"/>
-      <c r="M35" s="67">
+      <c r="L35" s="122"/>
+      <c r="M35" s="175">
         <f>SUM(M11:N34)</f>
         <v>0</v>
       </c>
-      <c r="N35" s="149"/>
-      <c r="O35" s="67">
+      <c r="N35" s="122"/>
+      <c r="O35" s="175">
         <f>SUM(O11:P34)</f>
         <v>0</v>
       </c>
-      <c r="P35" s="149"/>
-      <c r="Q35" s="67">
+      <c r="P35" s="122"/>
+      <c r="Q35" s="175">
         <f>SUM(Q11:R34)</f>
         <v>0</v>
       </c>
-      <c r="R35" s="149"/>
-      <c r="S35" s="67">
+      <c r="R35" s="122"/>
+      <c r="S35" s="175">
         <f>SUM(S11:T34)</f>
         <v>0</v>
       </c>
-      <c r="T35" s="149"/>
-      <c r="U35" s="67">
+      <c r="T35" s="122"/>
+      <c r="U35" s="175">
         <f>SUM(U11:V34)</f>
         <v>0</v>
       </c>
-      <c r="V35" s="149"/>
-      <c r="W35" s="53"/>
+      <c r="V35" s="122"/>
+      <c r="W35" s="126"/>
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
       <c r="Z35" s="8"/>
     </row>
     <row r="36" spans="1:26" ht="18" customHeight="1">
-      <c r="A36" s="168"/>
-      <c r="B36" s="169"/>
-      <c r="C36" s="157"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="169"/>
-      <c r="H36" s="158"/>
-      <c r="I36" s="169"/>
-      <c r="J36" s="158"/>
-      <c r="K36" s="169"/>
-      <c r="L36" s="158"/>
-      <c r="M36" s="169"/>
-      <c r="N36" s="158"/>
-      <c r="O36" s="169"/>
-      <c r="P36" s="158"/>
-      <c r="Q36" s="169"/>
-      <c r="R36" s="158"/>
-      <c r="S36" s="169"/>
-      <c r="T36" s="158"/>
-      <c r="U36" s="169"/>
-      <c r="V36" s="158"/>
-      <c r="W36" s="170"/>
+      <c r="A36" s="110"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="114"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="114"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="114"/>
+      <c r="P36" s="80"/>
+      <c r="Q36" s="114"/>
+      <c r="R36" s="80"/>
+      <c r="S36" s="114"/>
+      <c r="T36" s="80"/>
+      <c r="U36" s="114"/>
+      <c r="V36" s="80"/>
+      <c r="W36" s="127"/>
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
     </row>
     <row r="37" spans="1:26" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="171" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="65"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="146"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>41</v>
-      </c>
       <c r="I37" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P37" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q37" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="S37" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="U37" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="V37" s="147"/>
+        <v>36</v>
+      </c>
+      <c r="U37" s="169" t="s">
+        <v>36</v>
+      </c>
+      <c r="V37" s="66"/>
       <c r="W37" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
@@ -3907,15 +3780,13 @@
     </row>
     <row r="38" spans="1:26" ht="18" customHeight="1">
       <c r="A38" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="14">
-        <v>122</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="B38" s="14"/>
       <c r="C38" s="15"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="155"/>
-      <c r="F38" s="156"/>
+      <c r="D38" s="172"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="69"/>
       <c r="G38" s="16"/>
       <c r="H38" s="17"/>
       <c r="I38" s="16"/>
@@ -3930,8 +3801,8 @@
       <c r="R38" s="17"/>
       <c r="S38" s="16"/>
       <c r="T38" s="17"/>
-      <c r="U38" s="66"/>
-      <c r="V38" s="156"/>
+      <c r="U38" s="170"/>
+      <c r="V38" s="69"/>
       <c r="W38" s="18">
         <f t="shared" ref="W38:W46" si="0">SUM(G38:V38)</f>
         <v>0</v>
@@ -3941,16 +3812,12 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="18" customHeight="1">
-      <c r="A39" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="19">
-        <v>302</v>
-      </c>
+      <c r="A39" s="44"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="20"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="148"/>
-      <c r="F39" s="149"/>
+      <c r="D39" s="173"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="122"/>
       <c r="G39" s="21"/>
       <c r="H39" s="22"/>
       <c r="I39" s="21"/>
@@ -3965,8 +3832,8 @@
       <c r="R39" s="22"/>
       <c r="S39" s="21"/>
       <c r="T39" s="22"/>
-      <c r="U39" s="69"/>
-      <c r="V39" s="147"/>
+      <c r="U39" s="177"/>
+      <c r="V39" s="66"/>
       <c r="W39" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3976,16 +3843,12 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="18" customHeight="1">
-      <c r="A40" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="14">
-        <v>412</v>
-      </c>
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="15"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="156"/>
+      <c r="D40" s="172"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="69"/>
       <c r="G40" s="16"/>
       <c r="H40" s="17"/>
       <c r="I40" s="16"/>
@@ -4000,8 +3863,8 @@
       <c r="R40" s="17"/>
       <c r="S40" s="16"/>
       <c r="T40" s="17"/>
-      <c r="U40" s="70"/>
-      <c r="V40" s="147"/>
+      <c r="U40" s="178"/>
+      <c r="V40" s="66"/>
       <c r="W40" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4011,16 +3874,12 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="18" customHeight="1">
-      <c r="A41" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="19">
-        <v>630</v>
-      </c>
+      <c r="A41" s="44"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="20"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="148"/>
-      <c r="F41" s="149"/>
+      <c r="D41" s="173"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="122"/>
       <c r="G41" s="21"/>
       <c r="H41" s="22"/>
       <c r="I41" s="21"/>
@@ -4035,8 +3894,8 @@
       <c r="R41" s="22"/>
       <c r="S41" s="21"/>
       <c r="T41" s="22"/>
-      <c r="U41" s="65"/>
-      <c r="V41" s="149"/>
+      <c r="U41" s="174"/>
+      <c r="V41" s="122"/>
       <c r="W41" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4046,16 +3905,12 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="18" customHeight="1">
-      <c r="A42" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="14">
-        <v>947</v>
-      </c>
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="15"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="156"/>
+      <c r="D42" s="172"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="69"/>
       <c r="G42" s="16"/>
       <c r="H42" s="17"/>
       <c r="I42" s="16"/>
@@ -4070,8 +3925,8 @@
       <c r="R42" s="17"/>
       <c r="S42" s="16"/>
       <c r="T42" s="17"/>
-      <c r="U42" s="66"/>
-      <c r="V42" s="156"/>
+      <c r="U42" s="170"/>
+      <c r="V42" s="69"/>
       <c r="W42" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4084,9 +3939,9 @@
       <c r="A43" s="44"/>
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="148"/>
-      <c r="F43" s="149"/>
+      <c r="D43" s="173"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="122"/>
       <c r="G43" s="21"/>
       <c r="H43" s="22"/>
       <c r="I43" s="21"/>
@@ -4101,8 +3956,8 @@
       <c r="R43" s="22"/>
       <c r="S43" s="21"/>
       <c r="T43" s="22"/>
-      <c r="U43" s="65"/>
-      <c r="V43" s="149"/>
+      <c r="U43" s="174"/>
+      <c r="V43" s="122"/>
       <c r="W43" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4115,9 +3970,9 @@
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="155"/>
-      <c r="F44" s="156"/>
+      <c r="D44" s="172"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="69"/>
       <c r="G44" s="16"/>
       <c r="H44" s="17"/>
       <c r="I44" s="16"/>
@@ -4132,8 +3987,8 @@
       <c r="R44" s="17"/>
       <c r="S44" s="16"/>
       <c r="T44" s="17"/>
-      <c r="U44" s="66"/>
-      <c r="V44" s="156"/>
+      <c r="U44" s="170"/>
+      <c r="V44" s="69"/>
       <c r="W44" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4146,9 +4001,9 @@
       <c r="A45" s="44"/>
       <c r="B45" s="19"/>
       <c r="C45" s="20"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="148"/>
-      <c r="F45" s="149"/>
+      <c r="D45" s="173"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="122"/>
       <c r="G45" s="21"/>
       <c r="H45" s="22"/>
       <c r="I45" s="21"/>
@@ -4163,8 +4018,8 @@
       <c r="R45" s="22"/>
       <c r="S45" s="21"/>
       <c r="T45" s="22"/>
-      <c r="U45" s="65"/>
-      <c r="V45" s="149"/>
+      <c r="U45" s="174"/>
+      <c r="V45" s="122"/>
       <c r="W45" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4177,9 +4032,9 @@
       <c r="A46" s="13"/>
       <c r="B46" s="24"/>
       <c r="C46" s="15"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="155"/>
-      <c r="F46" s="156"/>
+      <c r="D46" s="172"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="69"/>
       <c r="G46" s="16"/>
       <c r="H46" s="17"/>
       <c r="I46" s="16"/>
@@ -4194,8 +4049,8 @@
       <c r="R46" s="17"/>
       <c r="S46" s="16"/>
       <c r="T46" s="17"/>
-      <c r="U46" s="66"/>
-      <c r="V46" s="156"/>
+      <c r="U46" s="170"/>
+      <c r="V46" s="69"/>
       <c r="W46" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4206,114 +4061,114 @@
     </row>
     <row r="47" spans="1:26" ht="18" customHeight="1">
       <c r="A47" s="25"/>
-      <c r="B47" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="159"/>
-      <c r="D47" s="159"/>
-      <c r="E47" s="159"/>
-      <c r="F47" s="160"/>
-      <c r="G47" s="104">
+      <c r="B47" s="106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="107">
         <f>SUM(G38:H46)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="160"/>
-      <c r="I47" s="104">
+      <c r="H47" s="63"/>
+      <c r="I47" s="107">
         <f>SUM(I38:J46)</f>
         <v>0</v>
       </c>
-      <c r="J47" s="160"/>
-      <c r="K47" s="104">
+      <c r="J47" s="63"/>
+      <c r="K47" s="107">
         <f>SUM(K38:L46)</f>
         <v>0</v>
       </c>
-      <c r="L47" s="160"/>
-      <c r="M47" s="104">
+      <c r="L47" s="63"/>
+      <c r="M47" s="107">
         <f>SUM(M38:N46)</f>
         <v>0</v>
       </c>
-      <c r="N47" s="160"/>
-      <c r="O47" s="104">
+      <c r="N47" s="63"/>
+      <c r="O47" s="107">
         <f>SUM(O38:P46)</f>
         <v>0</v>
       </c>
-      <c r="P47" s="160"/>
-      <c r="Q47" s="104">
+      <c r="P47" s="63"/>
+      <c r="Q47" s="107">
         <f>SUM(Q38:R46)</f>
         <v>0</v>
       </c>
-      <c r="R47" s="160"/>
-      <c r="S47" s="104">
+      <c r="R47" s="63"/>
+      <c r="S47" s="107">
         <f>SUM(S38:T46)</f>
         <v>0</v>
       </c>
-      <c r="T47" s="160"/>
-      <c r="U47" s="109"/>
-      <c r="V47" s="160"/>
+      <c r="T47" s="63"/>
+      <c r="U47" s="108"/>
+      <c r="V47" s="63"/>
       <c r="W47" s="26"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="18" customHeight="1">
-      <c r="A48" s="105" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="171"/>
-      <c r="C48" s="172"/>
-      <c r="D48" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" s="171"/>
-      <c r="F48" s="172"/>
-      <c r="G48" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="H48" s="171"/>
-      <c r="I48" s="171"/>
-      <c r="J48" s="171"/>
-      <c r="K48" s="171"/>
-      <c r="L48" s="171"/>
-      <c r="M48" s="171"/>
-      <c r="N48" s="171"/>
-      <c r="O48" s="171"/>
-      <c r="P48" s="171"/>
-      <c r="Q48" s="171"/>
-      <c r="R48" s="171"/>
-      <c r="S48" s="171"/>
-      <c r="T48" s="171"/>
-      <c r="U48" s="171"/>
-      <c r="V48" s="172"/>
+      <c r="A48" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="74"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="74"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" s="74"/>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="74"/>
+      <c r="P48" s="74"/>
+      <c r="Q48" s="74"/>
+      <c r="R48" s="74"/>
+      <c r="S48" s="74"/>
+      <c r="T48" s="74"/>
+      <c r="U48" s="74"/>
+      <c r="V48" s="75"/>
       <c r="W48" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="X48" s="29"/>
       <c r="Y48" s="29"/>
       <c r="Z48" s="29"/>
     </row>
     <row r="49" spans="1:26" ht="18" customHeight="1">
-      <c r="A49" s="107"/>
-      <c r="B49" s="173"/>
+      <c r="A49" s="95"/>
+      <c r="B49" s="97"/>
       <c r="C49" s="30"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="174"/>
-      <c r="F49" s="173"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="147"/>
-      <c r="I49" s="102"/>
-      <c r="J49" s="147"/>
-      <c r="K49" s="102"/>
-      <c r="L49" s="147"/>
-      <c r="M49" s="102"/>
-      <c r="N49" s="147"/>
-      <c r="O49" s="102"/>
-      <c r="P49" s="147"/>
-      <c r="Q49" s="102"/>
-      <c r="R49" s="147"/>
-      <c r="S49" s="102"/>
-      <c r="T49" s="147"/>
-      <c r="U49" s="102"/>
-      <c r="V49" s="147"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="99"/>
+      <c r="L49" s="66"/>
+      <c r="M49" s="99"/>
+      <c r="N49" s="66"/>
+      <c r="O49" s="99"/>
+      <c r="P49" s="66"/>
+      <c r="Q49" s="99"/>
+      <c r="R49" s="66"/>
+      <c r="S49" s="99"/>
+      <c r="T49" s="66"/>
+      <c r="U49" s="99"/>
+      <c r="V49" s="66"/>
       <c r="W49" s="31">
         <f t="shared" ref="W49:W53" si="1">SUM(G49:V49)</f>
         <v>0</v>
@@ -4323,28 +4178,28 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="18" customHeight="1">
-      <c r="A50" s="114"/>
-      <c r="B50" s="147"/>
+      <c r="A50" s="71"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="32"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="155"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="116"/>
-      <c r="H50" s="147"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="156"/>
-      <c r="K50" s="101"/>
-      <c r="L50" s="156"/>
-      <c r="M50" s="101"/>
-      <c r="N50" s="156"/>
-      <c r="O50" s="101"/>
-      <c r="P50" s="156"/>
-      <c r="Q50" s="101"/>
-      <c r="R50" s="156"/>
-      <c r="S50" s="101"/>
-      <c r="T50" s="156"/>
-      <c r="U50" s="101"/>
-      <c r="V50" s="156"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="89"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="89"/>
+      <c r="P50" s="69"/>
+      <c r="Q50" s="89"/>
+      <c r="R50" s="69"/>
+      <c r="S50" s="89"/>
+      <c r="T50" s="69"/>
+      <c r="U50" s="89"/>
+      <c r="V50" s="69"/>
       <c r="W50" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4354,28 +4209,28 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="18" customHeight="1">
-      <c r="A51" s="117"/>
-      <c r="B51" s="147"/>
+      <c r="A51" s="64"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="34"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="155"/>
-      <c r="F51" s="156"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="147"/>
-      <c r="I51" s="115"/>
-      <c r="J51" s="156"/>
-      <c r="K51" s="115"/>
-      <c r="L51" s="156"/>
-      <c r="M51" s="115"/>
-      <c r="N51" s="156"/>
-      <c r="O51" s="115"/>
-      <c r="P51" s="156"/>
-      <c r="Q51" s="115"/>
-      <c r="R51" s="156"/>
-      <c r="S51" s="115"/>
-      <c r="T51" s="156"/>
-      <c r="U51" s="115"/>
-      <c r="V51" s="156"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="77"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="77"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="77"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="77"/>
+      <c r="P51" s="69"/>
+      <c r="Q51" s="77"/>
+      <c r="R51" s="69"/>
+      <c r="S51" s="77"/>
+      <c r="T51" s="69"/>
+      <c r="U51" s="77"/>
+      <c r="V51" s="69"/>
       <c r="W51" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4385,28 +4240,28 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="18" customHeight="1">
-      <c r="A52" s="114"/>
-      <c r="B52" s="147"/>
+      <c r="A52" s="71"/>
+      <c r="B52" s="66"/>
       <c r="C52" s="32"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="155"/>
-      <c r="F52" s="156"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="147"/>
-      <c r="I52" s="101"/>
-      <c r="J52" s="156"/>
-      <c r="K52" s="101"/>
-      <c r="L52" s="156"/>
-      <c r="M52" s="101"/>
-      <c r="N52" s="156"/>
-      <c r="O52" s="101"/>
-      <c r="P52" s="156"/>
-      <c r="Q52" s="101"/>
-      <c r="R52" s="156"/>
-      <c r="S52" s="101"/>
-      <c r="T52" s="156"/>
-      <c r="U52" s="101"/>
-      <c r="V52" s="156"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="89"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="89"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="89"/>
+      <c r="P52" s="69"/>
+      <c r="Q52" s="89"/>
+      <c r="R52" s="69"/>
+      <c r="S52" s="89"/>
+      <c r="T52" s="69"/>
+      <c r="U52" s="89"/>
+      <c r="V52" s="69"/>
       <c r="W52" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4416,28 +4271,28 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="18" customHeight="1">
-      <c r="A53" s="119"/>
-      <c r="B53" s="158"/>
+      <c r="A53" s="93"/>
+      <c r="B53" s="80"/>
       <c r="C53" s="35"/>
-      <c r="D53" s="112"/>
-      <c r="E53" s="159"/>
-      <c r="F53" s="160"/>
-      <c r="G53" s="102"/>
-      <c r="H53" s="147"/>
-      <c r="I53" s="113"/>
-      <c r="J53" s="160"/>
-      <c r="K53" s="113"/>
-      <c r="L53" s="160"/>
-      <c r="M53" s="113"/>
-      <c r="N53" s="160"/>
-      <c r="O53" s="113"/>
-      <c r="P53" s="160"/>
-      <c r="Q53" s="113"/>
-      <c r="R53" s="160"/>
-      <c r="S53" s="113"/>
-      <c r="T53" s="160"/>
-      <c r="U53" s="113"/>
-      <c r="V53" s="160"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="101"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="101"/>
+      <c r="L53" s="63"/>
+      <c r="M53" s="101"/>
+      <c r="N53" s="63"/>
+      <c r="O53" s="101"/>
+      <c r="P53" s="63"/>
+      <c r="Q53" s="101"/>
+      <c r="R53" s="63"/>
+      <c r="S53" s="101"/>
+      <c r="T53" s="63"/>
+      <c r="U53" s="101"/>
+      <c r="V53" s="63"/>
       <c r="W53" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4447,64 +4302,64 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="18" customHeight="1">
-      <c r="A54" s="120" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54" s="157"/>
-      <c r="C54" s="158"/>
-      <c r="D54" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="E54" s="171"/>
-      <c r="F54" s="172"/>
-      <c r="G54" s="106" t="s">
-        <v>51</v>
-      </c>
-      <c r="H54" s="171"/>
-      <c r="I54" s="171"/>
-      <c r="J54" s="171"/>
-      <c r="K54" s="171"/>
-      <c r="L54" s="171"/>
-      <c r="M54" s="171"/>
-      <c r="N54" s="171"/>
-      <c r="O54" s="171"/>
-      <c r="P54" s="171"/>
-      <c r="Q54" s="171"/>
-      <c r="R54" s="171"/>
-      <c r="S54" s="171"/>
-      <c r="T54" s="171"/>
-      <c r="U54" s="171"/>
-      <c r="V54" s="172"/>
+      <c r="A54" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="60"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="74"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" s="74"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="74"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="74"/>
+      <c r="O54" s="74"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="74"/>
+      <c r="R54" s="74"/>
+      <c r="S54" s="74"/>
+      <c r="T54" s="74"/>
+      <c r="U54" s="74"/>
+      <c r="V54" s="75"/>
       <c r="W54" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="X54" s="29"/>
       <c r="Y54" s="29"/>
       <c r="Z54" s="29"/>
     </row>
     <row r="55" spans="1:26" ht="18" customHeight="1">
-      <c r="A55" s="107"/>
-      <c r="B55" s="174"/>
-      <c r="C55" s="173"/>
-      <c r="D55" s="108"/>
-      <c r="E55" s="174"/>
-      <c r="F55" s="173"/>
-      <c r="G55" s="102"/>
-      <c r="H55" s="147"/>
-      <c r="I55" s="102"/>
-      <c r="J55" s="147"/>
-      <c r="K55" s="102"/>
-      <c r="L55" s="147"/>
-      <c r="M55" s="102"/>
-      <c r="N55" s="147"/>
-      <c r="O55" s="102"/>
-      <c r="P55" s="147"/>
-      <c r="Q55" s="102"/>
-      <c r="R55" s="147"/>
-      <c r="S55" s="102"/>
-      <c r="T55" s="147"/>
-      <c r="U55" s="102"/>
-      <c r="V55" s="147"/>
+      <c r="A55" s="95"/>
+      <c r="B55" s="96"/>
+      <c r="C55" s="97"/>
+      <c r="D55" s="98"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="97"/>
+      <c r="G55" s="99"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="99"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="99"/>
+      <c r="L55" s="66"/>
+      <c r="M55" s="99"/>
+      <c r="N55" s="66"/>
+      <c r="O55" s="99"/>
+      <c r="P55" s="66"/>
+      <c r="Q55" s="99"/>
+      <c r="R55" s="66"/>
+      <c r="S55" s="99"/>
+      <c r="T55" s="66"/>
+      <c r="U55" s="99"/>
+      <c r="V55" s="66"/>
       <c r="W55" s="31">
         <f t="shared" ref="W55:W60" si="2">SUM(G55:V55)</f>
         <v>0</v>
@@ -4514,28 +4369,28 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="18" customHeight="1">
-      <c r="A56" s="121"/>
-      <c r="B56" s="155"/>
-      <c r="C56" s="156"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="155"/>
-      <c r="F56" s="156"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="156"/>
-      <c r="I56" s="101"/>
-      <c r="J56" s="156"/>
-      <c r="K56" s="101"/>
-      <c r="L56" s="156"/>
-      <c r="M56" s="101"/>
-      <c r="N56" s="156"/>
-      <c r="O56" s="101"/>
-      <c r="P56" s="156"/>
-      <c r="Q56" s="101"/>
-      <c r="R56" s="156"/>
-      <c r="S56" s="101"/>
-      <c r="T56" s="156"/>
-      <c r="U56" s="101"/>
-      <c r="V56" s="156"/>
+      <c r="A56" s="100"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="69"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="69"/>
+      <c r="I56" s="89"/>
+      <c r="J56" s="69"/>
+      <c r="K56" s="89"/>
+      <c r="L56" s="69"/>
+      <c r="M56" s="89"/>
+      <c r="N56" s="69"/>
+      <c r="O56" s="89"/>
+      <c r="P56" s="69"/>
+      <c r="Q56" s="89"/>
+      <c r="R56" s="69"/>
+      <c r="S56" s="89"/>
+      <c r="T56" s="69"/>
+      <c r="U56" s="89"/>
+      <c r="V56" s="69"/>
       <c r="W56" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4545,28 +4400,28 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57" spans="1:26" ht="18" customHeight="1">
-      <c r="A57" s="122"/>
-      <c r="B57" s="155"/>
-      <c r="C57" s="156"/>
-      <c r="D57" s="123"/>
-      <c r="E57" s="155"/>
-      <c r="F57" s="156"/>
-      <c r="G57" s="115"/>
-      <c r="H57" s="156"/>
-      <c r="I57" s="115"/>
-      <c r="J57" s="156"/>
-      <c r="K57" s="115"/>
-      <c r="L57" s="156"/>
-      <c r="M57" s="115"/>
-      <c r="N57" s="156"/>
-      <c r="O57" s="115"/>
-      <c r="P57" s="156"/>
-      <c r="Q57" s="115"/>
-      <c r="R57" s="156"/>
-      <c r="S57" s="115"/>
-      <c r="T57" s="156"/>
-      <c r="U57" s="115"/>
-      <c r="V57" s="156"/>
+      <c r="A57" s="91"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="77"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="77"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="77"/>
+      <c r="N57" s="69"/>
+      <c r="O57" s="77"/>
+      <c r="P57" s="69"/>
+      <c r="Q57" s="77"/>
+      <c r="R57" s="69"/>
+      <c r="S57" s="77"/>
+      <c r="T57" s="69"/>
+      <c r="U57" s="77"/>
+      <c r="V57" s="69"/>
       <c r="W57" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4576,28 +4431,28 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" spans="1:26" ht="18" customHeight="1">
-      <c r="A58" s="114"/>
-      <c r="B58" s="146"/>
-      <c r="C58" s="147"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="155"/>
-      <c r="F58" s="156"/>
-      <c r="G58" s="101"/>
-      <c r="H58" s="156"/>
-      <c r="I58" s="101"/>
-      <c r="J58" s="156"/>
-      <c r="K58" s="101"/>
-      <c r="L58" s="156"/>
-      <c r="M58" s="101"/>
-      <c r="N58" s="156"/>
-      <c r="O58" s="101"/>
-      <c r="P58" s="156"/>
-      <c r="Q58" s="101"/>
-      <c r="R58" s="156"/>
-      <c r="S58" s="101"/>
-      <c r="T58" s="156"/>
-      <c r="U58" s="101"/>
-      <c r="V58" s="156"/>
+      <c r="A58" s="71"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="89"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="89"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="89"/>
+      <c r="L58" s="69"/>
+      <c r="M58" s="89"/>
+      <c r="N58" s="69"/>
+      <c r="O58" s="89"/>
+      <c r="P58" s="69"/>
+      <c r="Q58" s="89"/>
+      <c r="R58" s="69"/>
+      <c r="S58" s="89"/>
+      <c r="T58" s="69"/>
+      <c r="U58" s="89"/>
+      <c r="V58" s="69"/>
       <c r="W58" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4607,28 +4462,28 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26" ht="18" customHeight="1">
-      <c r="A59" s="122"/>
-      <c r="B59" s="155"/>
-      <c r="C59" s="156"/>
-      <c r="D59" s="123"/>
-      <c r="E59" s="155"/>
-      <c r="F59" s="156"/>
-      <c r="G59" s="115"/>
-      <c r="H59" s="156"/>
-      <c r="I59" s="115"/>
-      <c r="J59" s="156"/>
-      <c r="K59" s="115"/>
-      <c r="L59" s="156"/>
-      <c r="M59" s="115"/>
-      <c r="N59" s="156"/>
-      <c r="O59" s="115"/>
-      <c r="P59" s="156"/>
-      <c r="Q59" s="115"/>
-      <c r="R59" s="156"/>
-      <c r="S59" s="115"/>
-      <c r="T59" s="156"/>
-      <c r="U59" s="115"/>
-      <c r="V59" s="156"/>
+      <c r="A59" s="91"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="77"/>
+      <c r="L59" s="69"/>
+      <c r="M59" s="77"/>
+      <c r="N59" s="69"/>
+      <c r="O59" s="77"/>
+      <c r="P59" s="69"/>
+      <c r="Q59" s="77"/>
+      <c r="R59" s="69"/>
+      <c r="S59" s="77"/>
+      <c r="T59" s="69"/>
+      <c r="U59" s="77"/>
+      <c r="V59" s="69"/>
       <c r="W59" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4638,28 +4493,28 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" ht="18" customHeight="1">
-      <c r="A60" s="114"/>
-      <c r="B60" s="146"/>
-      <c r="C60" s="147"/>
-      <c r="D60" s="130"/>
-      <c r="E60" s="157"/>
-      <c r="F60" s="158"/>
-      <c r="G60" s="129"/>
-      <c r="H60" s="160"/>
-      <c r="I60" s="129"/>
-      <c r="J60" s="160"/>
-      <c r="K60" s="129"/>
-      <c r="L60" s="160"/>
-      <c r="M60" s="129"/>
-      <c r="N60" s="160"/>
-      <c r="O60" s="129"/>
-      <c r="P60" s="160"/>
-      <c r="Q60" s="129"/>
-      <c r="R60" s="160"/>
-      <c r="S60" s="129"/>
-      <c r="T60" s="160"/>
-      <c r="U60" s="129"/>
-      <c r="V60" s="160"/>
+      <c r="A60" s="71"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="63"/>
+      <c r="K60" s="78"/>
+      <c r="L60" s="63"/>
+      <c r="M60" s="78"/>
+      <c r="N60" s="63"/>
+      <c r="O60" s="78"/>
+      <c r="P60" s="63"/>
+      <c r="Q60" s="78"/>
+      <c r="R60" s="63"/>
+      <c r="S60" s="78"/>
+      <c r="T60" s="63"/>
+      <c r="U60" s="78"/>
+      <c r="V60" s="63"/>
       <c r="W60" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4669,64 +4524,64 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61" spans="1:26" ht="18" customHeight="1">
-      <c r="A61" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="171"/>
-      <c r="C61" s="172"/>
-      <c r="D61" s="106" t="s">
-        <v>53</v>
-      </c>
-      <c r="E61" s="171"/>
-      <c r="F61" s="172"/>
-      <c r="G61" s="106" t="s">
-        <v>54</v>
-      </c>
-      <c r="H61" s="171"/>
-      <c r="I61" s="171"/>
-      <c r="J61" s="171"/>
-      <c r="K61" s="171"/>
-      <c r="L61" s="171"/>
-      <c r="M61" s="171"/>
-      <c r="N61" s="171"/>
-      <c r="O61" s="171"/>
-      <c r="P61" s="171"/>
-      <c r="Q61" s="171"/>
-      <c r="R61" s="171"/>
-      <c r="S61" s="171"/>
-      <c r="T61" s="171"/>
-      <c r="U61" s="171"/>
-      <c r="V61" s="172"/>
+      <c r="A61" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="74"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="74"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="74"/>
+      <c r="M61" s="74"/>
+      <c r="N61" s="74"/>
+      <c r="O61" s="74"/>
+      <c r="P61" s="74"/>
+      <c r="Q61" s="74"/>
+      <c r="R61" s="74"/>
+      <c r="S61" s="74"/>
+      <c r="T61" s="74"/>
+      <c r="U61" s="74"/>
+      <c r="V61" s="75"/>
       <c r="W61" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="X61" s="29"/>
       <c r="Y61" s="29"/>
       <c r="Z61" s="29"/>
     </row>
     <row r="62" spans="1:26" ht="18" customHeight="1">
-      <c r="A62" s="117"/>
-      <c r="B62" s="146"/>
-      <c r="C62" s="147"/>
-      <c r="D62" s="128"/>
-      <c r="E62" s="146"/>
-      <c r="F62" s="147"/>
-      <c r="G62" s="128"/>
-      <c r="H62" s="147"/>
-      <c r="I62" s="128"/>
-      <c r="J62" s="147"/>
-      <c r="K62" s="128"/>
-      <c r="L62" s="147"/>
-      <c r="M62" s="128"/>
-      <c r="N62" s="147"/>
-      <c r="O62" s="128"/>
-      <c r="P62" s="147"/>
-      <c r="Q62" s="128"/>
-      <c r="R62" s="147"/>
-      <c r="S62" s="128"/>
-      <c r="T62" s="147"/>
-      <c r="U62" s="128"/>
-      <c r="V62" s="147"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="70"/>
+      <c r="H62" s="66"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="66"/>
+      <c r="K62" s="70"/>
+      <c r="L62" s="66"/>
+      <c r="M62" s="70"/>
+      <c r="N62" s="66"/>
+      <c r="O62" s="70"/>
+      <c r="P62" s="66"/>
+      <c r="Q62" s="70"/>
+      <c r="R62" s="66"/>
+      <c r="S62" s="70"/>
+      <c r="T62" s="66"/>
+      <c r="U62" s="70"/>
+      <c r="V62" s="66"/>
       <c r="W62" s="31">
         <f t="shared" ref="W62:W64" si="3">SUM(G62:V62)</f>
         <v>0</v>
@@ -4736,28 +4591,28 @@
       <c r="Z62" s="1"/>
     </row>
     <row r="63" spans="1:26" ht="18" customHeight="1">
-      <c r="A63" s="114"/>
-      <c r="B63" s="146"/>
-      <c r="C63" s="147"/>
-      <c r="D63" s="131"/>
-      <c r="E63" s="155"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="131"/>
-      <c r="H63" s="156"/>
-      <c r="I63" s="131"/>
-      <c r="J63" s="156"/>
-      <c r="K63" s="131"/>
-      <c r="L63" s="156"/>
-      <c r="M63" s="131"/>
-      <c r="N63" s="156"/>
-      <c r="O63" s="131"/>
-      <c r="P63" s="156"/>
-      <c r="Q63" s="131"/>
-      <c r="R63" s="156"/>
-      <c r="S63" s="131"/>
-      <c r="T63" s="156"/>
-      <c r="U63" s="131"/>
-      <c r="V63" s="156"/>
+      <c r="A63" s="71"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="69"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="69"/>
+      <c r="O63" s="68"/>
+      <c r="P63" s="69"/>
+      <c r="Q63" s="68"/>
+      <c r="R63" s="69"/>
+      <c r="S63" s="68"/>
+      <c r="T63" s="69"/>
+      <c r="U63" s="68"/>
+      <c r="V63" s="69"/>
       <c r="W63" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4767,28 +4622,28 @@
       <c r="Z63" s="1"/>
     </row>
     <row r="64" spans="1:26" ht="18" customHeight="1">
-      <c r="A64" s="117"/>
-      <c r="B64" s="146"/>
-      <c r="C64" s="147"/>
-      <c r="D64" s="132"/>
-      <c r="E64" s="159"/>
-      <c r="F64" s="160"/>
-      <c r="G64" s="132"/>
-      <c r="H64" s="160"/>
-      <c r="I64" s="132"/>
-      <c r="J64" s="160"/>
-      <c r="K64" s="132"/>
-      <c r="L64" s="160"/>
-      <c r="M64" s="132"/>
-      <c r="N64" s="160"/>
-      <c r="O64" s="132"/>
-      <c r="P64" s="160"/>
-      <c r="Q64" s="132"/>
-      <c r="R64" s="160"/>
-      <c r="S64" s="132"/>
-      <c r="T64" s="160"/>
-      <c r="U64" s="132"/>
-      <c r="V64" s="160"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="62"/>
+      <c r="J64" s="63"/>
+      <c r="K64" s="62"/>
+      <c r="L64" s="63"/>
+      <c r="M64" s="62"/>
+      <c r="N64" s="63"/>
+      <c r="O64" s="62"/>
+      <c r="P64" s="63"/>
+      <c r="Q64" s="62"/>
+      <c r="R64" s="63"/>
+      <c r="S64" s="62"/>
+      <c r="T64" s="63"/>
+      <c r="U64" s="62"/>
+      <c r="V64" s="63"/>
       <c r="W64" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4798,287 +4653,287 @@
       <c r="Z64" s="1"/>
     </row>
     <row r="65" spans="1:26" ht="18" customHeight="1">
-      <c r="A65" s="135"/>
-      <c r="B65" s="137"/>
-      <c r="C65" s="137"/>
-      <c r="D65" s="137"/>
-      <c r="E65" s="137"/>
-      <c r="F65" s="137"/>
-      <c r="G65" s="136"/>
-      <c r="H65" s="144"/>
-      <c r="I65" s="136"/>
-      <c r="J65" s="144"/>
-      <c r="K65" s="136"/>
-      <c r="L65" s="144"/>
-      <c r="M65" s="136"/>
-      <c r="N65" s="144"/>
-      <c r="O65" s="133"/>
-      <c r="P65" s="144"/>
-      <c r="Q65" s="133"/>
-      <c r="R65" s="144"/>
-      <c r="S65" s="133"/>
-      <c r="T65" s="144"/>
-      <c r="U65" s="133"/>
-      <c r="V65" s="144"/>
-      <c r="W65" s="134"/>
+      <c r="A65" s="58"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="53"/>
+      <c r="O65" s="52"/>
+      <c r="P65" s="53"/>
+      <c r="Q65" s="52"/>
+      <c r="R65" s="53"/>
+      <c r="S65" s="52"/>
+      <c r="T65" s="53"/>
+      <c r="U65" s="52"/>
+      <c r="V65" s="53"/>
+      <c r="W65" s="56"/>
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
     <row r="66" spans="1:26" ht="18" customHeight="1">
-      <c r="A66" s="175"/>
-      <c r="B66" s="157"/>
-      <c r="C66" s="157"/>
-      <c r="D66" s="157"/>
-      <c r="E66" s="157"/>
-      <c r="F66" s="157"/>
-      <c r="G66" s="175"/>
-      <c r="H66" s="176"/>
-      <c r="I66" s="175"/>
-      <c r="J66" s="176"/>
-      <c r="K66" s="175"/>
-      <c r="L66" s="176"/>
-      <c r="M66" s="175"/>
-      <c r="N66" s="176"/>
-      <c r="O66" s="175"/>
-      <c r="P66" s="176"/>
-      <c r="Q66" s="175"/>
-      <c r="R66" s="176"/>
-      <c r="S66" s="175"/>
-      <c r="T66" s="176"/>
-      <c r="U66" s="175"/>
-      <c r="V66" s="176"/>
-      <c r="W66" s="177"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="55"/>
+      <c r="K66" s="54"/>
+      <c r="L66" s="55"/>
+      <c r="M66" s="54"/>
+      <c r="N66" s="55"/>
+      <c r="O66" s="54"/>
+      <c r="P66" s="55"/>
+      <c r="Q66" s="54"/>
+      <c r="R66" s="55"/>
+      <c r="S66" s="54"/>
+      <c r="T66" s="55"/>
+      <c r="U66" s="54"/>
+      <c r="V66" s="55"/>
+      <c r="W66" s="57"/>
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
     <row r="67" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A67" s="124"/>
-      <c r="B67" s="137"/>
-      <c r="C67" s="137"/>
-      <c r="D67" s="137"/>
-      <c r="E67" s="137"/>
-      <c r="F67" s="137"/>
-      <c r="G67" s="137"/>
-      <c r="H67" s="137"/>
-      <c r="I67" s="137"/>
-      <c r="J67" s="137"/>
-      <c r="K67" s="137"/>
-      <c r="L67" s="137"/>
-      <c r="M67" s="137"/>
-      <c r="N67" s="137"/>
-      <c r="O67" s="137"/>
-      <c r="P67" s="137"/>
-      <c r="Q67" s="137"/>
-      <c r="R67" s="137"/>
-      <c r="S67" s="137"/>
-      <c r="T67" s="137"/>
-      <c r="U67" s="137"/>
-      <c r="V67" s="137"/>
-      <c r="W67" s="144"/>
+      <c r="A67" s="81"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59"/>
+      <c r="K67" s="59"/>
+      <c r="L67" s="59"/>
+      <c r="M67" s="59"/>
+      <c r="N67" s="59"/>
+      <c r="O67" s="59"/>
+      <c r="P67" s="59"/>
+      <c r="Q67" s="59"/>
+      <c r="R67" s="59"/>
+      <c r="S67" s="59"/>
+      <c r="T67" s="59"/>
+      <c r="U67" s="59"/>
+      <c r="V67" s="59"/>
+      <c r="W67" s="53"/>
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
     <row r="68" spans="1:26" ht="18" customHeight="1">
-      <c r="A68" s="125"/>
-      <c r="B68" s="148"/>
-      <c r="C68" s="148"/>
-      <c r="D68" s="148"/>
-      <c r="E68" s="148"/>
-      <c r="F68" s="148"/>
-      <c r="G68" s="148"/>
-      <c r="H68" s="148"/>
-      <c r="I68" s="148"/>
-      <c r="J68" s="148"/>
-      <c r="K68" s="148"/>
-      <c r="L68" s="148"/>
-      <c r="M68" s="148"/>
-      <c r="N68" s="148"/>
-      <c r="O68" s="148"/>
-      <c r="P68" s="148"/>
-      <c r="Q68" s="148"/>
-      <c r="R68" s="148"/>
-      <c r="S68" s="148"/>
-      <c r="T68" s="148"/>
-      <c r="U68" s="148"/>
-      <c r="V68" s="148"/>
-      <c r="W68" s="153"/>
+      <c r="A68" s="82"/>
+      <c r="B68" s="83"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="83"/>
+      <c r="J68" s="83"/>
+      <c r="K68" s="83"/>
+      <c r="L68" s="83"/>
+      <c r="M68" s="83"/>
+      <c r="N68" s="83"/>
+      <c r="O68" s="83"/>
+      <c r="P68" s="83"/>
+      <c r="Q68" s="83"/>
+      <c r="R68" s="83"/>
+      <c r="S68" s="83"/>
+      <c r="T68" s="83"/>
+      <c r="U68" s="83"/>
+      <c r="V68" s="83"/>
+      <c r="W68" s="84"/>
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
     <row r="69" spans="1:26" ht="18" customHeight="1">
-      <c r="A69" s="178"/>
-      <c r="B69" s="148"/>
-      <c r="C69" s="148"/>
-      <c r="D69" s="148"/>
-      <c r="E69" s="148"/>
-      <c r="F69" s="148"/>
-      <c r="G69" s="148"/>
-      <c r="H69" s="148"/>
-      <c r="I69" s="148"/>
-      <c r="J69" s="148"/>
-      <c r="K69" s="148"/>
-      <c r="L69" s="148"/>
-      <c r="M69" s="148"/>
-      <c r="N69" s="148"/>
-      <c r="O69" s="148"/>
-      <c r="P69" s="148"/>
-      <c r="Q69" s="148"/>
-      <c r="R69" s="148"/>
-      <c r="S69" s="148"/>
-      <c r="T69" s="148"/>
-      <c r="U69" s="148"/>
-      <c r="V69" s="148"/>
-      <c r="W69" s="153"/>
+      <c r="A69" s="85"/>
+      <c r="B69" s="83"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="83"/>
+      <c r="F69" s="83"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="83"/>
+      <c r="I69" s="83"/>
+      <c r="J69" s="83"/>
+      <c r="K69" s="83"/>
+      <c r="L69" s="83"/>
+      <c r="M69" s="83"/>
+      <c r="N69" s="83"/>
+      <c r="O69" s="83"/>
+      <c r="P69" s="83"/>
+      <c r="Q69" s="83"/>
+      <c r="R69" s="83"/>
+      <c r="S69" s="83"/>
+      <c r="T69" s="83"/>
+      <c r="U69" s="83"/>
+      <c r="V69" s="83"/>
+      <c r="W69" s="84"/>
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
     <row r="70" spans="1:26" ht="18" customHeight="1">
-      <c r="A70" s="125"/>
-      <c r="B70" s="148"/>
-      <c r="C70" s="148"/>
-      <c r="D70" s="148"/>
-      <c r="E70" s="148"/>
-      <c r="F70" s="148"/>
-      <c r="G70" s="148"/>
-      <c r="H70" s="148"/>
-      <c r="I70" s="148"/>
-      <c r="J70" s="148"/>
-      <c r="K70" s="148"/>
-      <c r="L70" s="148"/>
-      <c r="M70" s="148"/>
-      <c r="N70" s="148"/>
-      <c r="O70" s="148"/>
-      <c r="P70" s="148"/>
-      <c r="Q70" s="148"/>
-      <c r="R70" s="148"/>
-      <c r="S70" s="148"/>
-      <c r="T70" s="148"/>
-      <c r="U70" s="148"/>
-      <c r="V70" s="148"/>
-      <c r="W70" s="153"/>
+      <c r="A70" s="82"/>
+      <c r="B70" s="83"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="83"/>
+      <c r="E70" s="83"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="83"/>
+      <c r="H70" s="83"/>
+      <c r="I70" s="83"/>
+      <c r="J70" s="83"/>
+      <c r="K70" s="83"/>
+      <c r="L70" s="83"/>
+      <c r="M70" s="83"/>
+      <c r="N70" s="83"/>
+      <c r="O70" s="83"/>
+      <c r="P70" s="83"/>
+      <c r="Q70" s="83"/>
+      <c r="R70" s="83"/>
+      <c r="S70" s="83"/>
+      <c r="T70" s="83"/>
+      <c r="U70" s="83"/>
+      <c r="V70" s="83"/>
+      <c r="W70" s="84"/>
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
     <row r="71" spans="1:26" ht="18" customHeight="1">
-      <c r="A71" s="178"/>
-      <c r="B71" s="148"/>
-      <c r="C71" s="148"/>
-      <c r="D71" s="148"/>
-      <c r="E71" s="148"/>
-      <c r="F71" s="148"/>
-      <c r="G71" s="148"/>
-      <c r="H71" s="148"/>
-      <c r="I71" s="148"/>
-      <c r="J71" s="148"/>
-      <c r="K71" s="148"/>
-      <c r="L71" s="148"/>
-      <c r="M71" s="148"/>
-      <c r="N71" s="148"/>
-      <c r="O71" s="148"/>
-      <c r="P71" s="148"/>
-      <c r="Q71" s="148"/>
-      <c r="R71" s="148"/>
-      <c r="S71" s="148"/>
-      <c r="T71" s="148"/>
-      <c r="U71" s="148"/>
-      <c r="V71" s="148"/>
-      <c r="W71" s="153"/>
+      <c r="A71" s="85"/>
+      <c r="B71" s="83"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="83"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="83"/>
+      <c r="I71" s="83"/>
+      <c r="J71" s="83"/>
+      <c r="K71" s="83"/>
+      <c r="L71" s="83"/>
+      <c r="M71" s="83"/>
+      <c r="N71" s="83"/>
+      <c r="O71" s="83"/>
+      <c r="P71" s="83"/>
+      <c r="Q71" s="83"/>
+      <c r="R71" s="83"/>
+      <c r="S71" s="83"/>
+      <c r="T71" s="83"/>
+      <c r="U71" s="83"/>
+      <c r="V71" s="83"/>
+      <c r="W71" s="84"/>
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
     <row r="72" spans="1:26" ht="18" customHeight="1">
-      <c r="A72" s="126"/>
-      <c r="B72" s="148"/>
-      <c r="C72" s="148"/>
-      <c r="D72" s="148"/>
-      <c r="E72" s="148"/>
-      <c r="F72" s="148"/>
-      <c r="G72" s="148"/>
-      <c r="H72" s="148"/>
-      <c r="I72" s="148"/>
-      <c r="J72" s="148"/>
-      <c r="K72" s="148"/>
-      <c r="L72" s="148"/>
-      <c r="M72" s="148"/>
-      <c r="N72" s="148"/>
-      <c r="O72" s="148"/>
-      <c r="P72" s="148"/>
-      <c r="Q72" s="148"/>
-      <c r="R72" s="148"/>
-      <c r="S72" s="148"/>
-      <c r="T72" s="148"/>
-      <c r="U72" s="148"/>
-      <c r="V72" s="148"/>
-      <c r="W72" s="153"/>
+      <c r="A72" s="86"/>
+      <c r="B72" s="83"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="83"/>
+      <c r="E72" s="83"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="83"/>
+      <c r="I72" s="83"/>
+      <c r="J72" s="83"/>
+      <c r="K72" s="83"/>
+      <c r="L72" s="83"/>
+      <c r="M72" s="83"/>
+      <c r="N72" s="83"/>
+      <c r="O72" s="83"/>
+      <c r="P72" s="83"/>
+      <c r="Q72" s="83"/>
+      <c r="R72" s="83"/>
+      <c r="S72" s="83"/>
+      <c r="T72" s="83"/>
+      <c r="U72" s="83"/>
+      <c r="V72" s="83"/>
+      <c r="W72" s="84"/>
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
     <row r="73" spans="1:26" ht="18" customHeight="1">
-      <c r="A73" s="178"/>
-      <c r="B73" s="148"/>
-      <c r="C73" s="148"/>
-      <c r="D73" s="148"/>
-      <c r="E73" s="148"/>
-      <c r="F73" s="148"/>
-      <c r="G73" s="148"/>
-      <c r="H73" s="148"/>
-      <c r="I73" s="148"/>
-      <c r="J73" s="148"/>
-      <c r="K73" s="148"/>
-      <c r="L73" s="148"/>
-      <c r="M73" s="148"/>
-      <c r="N73" s="148"/>
-      <c r="O73" s="148"/>
-      <c r="P73" s="148"/>
-      <c r="Q73" s="148"/>
-      <c r="R73" s="148"/>
-      <c r="S73" s="148"/>
-      <c r="T73" s="148"/>
-      <c r="U73" s="148"/>
-      <c r="V73" s="148"/>
-      <c r="W73" s="153"/>
+      <c r="A73" s="85"/>
+      <c r="B73" s="83"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="83"/>
+      <c r="J73" s="83"/>
+      <c r="K73" s="83"/>
+      <c r="L73" s="83"/>
+      <c r="M73" s="83"/>
+      <c r="N73" s="83"/>
+      <c r="O73" s="83"/>
+      <c r="P73" s="83"/>
+      <c r="Q73" s="83"/>
+      <c r="R73" s="83"/>
+      <c r="S73" s="83"/>
+      <c r="T73" s="83"/>
+      <c r="U73" s="83"/>
+      <c r="V73" s="83"/>
+      <c r="W73" s="84"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
     <row r="74" spans="1:26" ht="19.5" customHeight="1">
       <c r="A74" s="27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B74" s="36" t="b">
         <v>0</v>
       </c>
-      <c r="C74" s="127" t="s">
-        <v>55</v>
-      </c>
-      <c r="D74" s="171"/>
-      <c r="E74" s="171"/>
-      <c r="F74" s="171"/>
-      <c r="G74" s="171"/>
-      <c r="H74" s="171"/>
-      <c r="I74" s="127"/>
-      <c r="J74" s="171"/>
-      <c r="K74" s="171"/>
-      <c r="L74" s="171"/>
-      <c r="M74" s="171"/>
-      <c r="N74" s="171"/>
-      <c r="O74" s="127"/>
-      <c r="P74" s="171"/>
-      <c r="Q74" s="171"/>
-      <c r="R74" s="171"/>
-      <c r="S74" s="171"/>
-      <c r="T74" s="171"/>
-      <c r="U74" s="171"/>
-      <c r="V74" s="171"/>
-      <c r="W74" s="179"/>
+      <c r="C74" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="74"/>
+      <c r="H74" s="74"/>
+      <c r="I74" s="87"/>
+      <c r="J74" s="74"/>
+      <c r="K74" s="74"/>
+      <c r="L74" s="74"/>
+      <c r="M74" s="74"/>
+      <c r="N74" s="74"/>
+      <c r="O74" s="87"/>
+      <c r="P74" s="74"/>
+      <c r="Q74" s="74"/>
+      <c r="R74" s="74"/>
+      <c r="S74" s="74"/>
+      <c r="T74" s="74"/>
+      <c r="U74" s="74"/>
+      <c r="V74" s="74"/>
+      <c r="W74" s="88"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
@@ -30873,62 +30728,423 @@
     </row>
   </sheetData>
   <mergeCells count="497">
-    <mergeCell ref="S65:T66"/>
-    <mergeCell ref="U65:V66"/>
-    <mergeCell ref="W65:W66"/>
-    <mergeCell ref="A65:F66"/>
-    <mergeCell ref="G65:H66"/>
-    <mergeCell ref="I65:J66"/>
-    <mergeCell ref="K65:L66"/>
-    <mergeCell ref="M65:N66"/>
-    <mergeCell ref="O65:P66"/>
-    <mergeCell ref="Q65:R66"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="S64:T64"/>
-    <mergeCell ref="U64:V64"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="O63:P63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="S63:T63"/>
-    <mergeCell ref="U63:V63"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="O62:P62"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="S62:T62"/>
-    <mergeCell ref="U62:V62"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:V61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="U60:V60"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="O35:P36"/>
+    <mergeCell ref="Q35:R36"/>
+    <mergeCell ref="S35:T36"/>
+    <mergeCell ref="U35:V36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:F36"/>
+    <mergeCell ref="G35:H36"/>
+    <mergeCell ref="I35:J36"/>
+    <mergeCell ref="K35:L36"/>
+    <mergeCell ref="M35:N36"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="W35:W36"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="F5:O5"/>
+    <mergeCell ref="I6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="S4:W4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:W5"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B3:E6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F9"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="K7:L9"/>
+    <mergeCell ref="M7:N9"/>
+    <mergeCell ref="O7:P9"/>
+    <mergeCell ref="Q7:R9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="O11:P12"/>
+    <mergeCell ref="Q11:R12"/>
+    <mergeCell ref="S11:T12"/>
+    <mergeCell ref="U11:V12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="S7:T9"/>
+    <mergeCell ref="U7:V9"/>
+    <mergeCell ref="W7:W9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:D24"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:D22"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:D30"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:V48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="G54:V54"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="U56:V56"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="U55:V55"/>
+    <mergeCell ref="U53:V53"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="O57:P57"/>
     <mergeCell ref="A67:W67"/>
     <mergeCell ref="A68:W69"/>
     <mergeCell ref="A70:W71"/>
@@ -30953,431 +31169,70 @@
     <mergeCell ref="D59:F59"/>
     <mergeCell ref="G59:H59"/>
     <mergeCell ref="I59:J59"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="U57:V57"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="U56:V56"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="U55:V55"/>
-    <mergeCell ref="U53:V53"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="G54:V54"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="U52:V52"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:V48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D28"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:D30"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:D24"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:D22"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:D14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="S11:T12"/>
-    <mergeCell ref="U11:V12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="B11:D12"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="S7:T9"/>
-    <mergeCell ref="U7:V9"/>
-    <mergeCell ref="W7:W9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F9"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="M11:N12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="K7:L9"/>
-    <mergeCell ref="M7:N9"/>
-    <mergeCell ref="O7:P9"/>
-    <mergeCell ref="Q7:R9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="O11:P12"/>
-    <mergeCell ref="Q11:R12"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="F5:O5"/>
-    <mergeCell ref="I6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="S4:W4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:W5"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B3:E6"/>
-    <mergeCell ref="W35:W36"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="O35:P36"/>
-    <mergeCell ref="Q35:R36"/>
-    <mergeCell ref="S35:T36"/>
-    <mergeCell ref="U35:V36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:F36"/>
-    <mergeCell ref="G35:H36"/>
-    <mergeCell ref="I35:J36"/>
-    <mergeCell ref="K35:L36"/>
-    <mergeCell ref="M35:N36"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:D32"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="W29:W30"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:V61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="U60:V60"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="S63:T63"/>
+    <mergeCell ref="U63:V63"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="O62:P62"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="S62:T62"/>
+    <mergeCell ref="U62:V62"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="S64:T64"/>
+    <mergeCell ref="U64:V64"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="S65:T66"/>
+    <mergeCell ref="U65:V66"/>
+    <mergeCell ref="W65:W66"/>
+    <mergeCell ref="A65:F66"/>
+    <mergeCell ref="G65:H66"/>
+    <mergeCell ref="I65:J66"/>
+    <mergeCell ref="K65:L66"/>
+    <mergeCell ref="M65:N66"/>
+    <mergeCell ref="O65:P66"/>
+    <mergeCell ref="Q65:R66"/>
   </mergeCells>
-  <conditionalFormatting sqref="G35:V36">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="G47:T47">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47:T47">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="G35:V36">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31485,27 +31340,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="45" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B2" s="47" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="15" customHeight="1">
       <c r="A3" s="46" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B3" s="47" t="b">
         <v>1</v>
@@ -31525,1006 +31380,1006 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="37" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B1" s="37">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="15" customHeight="1">
       <c r="A2" s="37" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B2" s="37">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="15" customHeight="1">
       <c r="A3" s="37" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B3" s="37">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="15" customHeight="1">
       <c r="A4" s="37" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B4" s="37">
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="15" customHeight="1">
       <c r="A5" s="37" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B5" s="37">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="15" customHeight="1">
       <c r="A6" s="37" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B6" s="37">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="15" customHeight="1">
       <c r="A7" s="37" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B7" s="37">
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="15" customHeight="1">
       <c r="A8" s="37" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B8" s="37">
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="15" customHeight="1">
       <c r="A9" s="37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="37">
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="15" customHeight="1">
       <c r="A10" s="37" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B10" s="37">
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="15" customHeight="1">
       <c r="A11" s="37" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B11" s="37">
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="15" customHeight="1">
       <c r="A12" s="37" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B12" s="37">
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="15" customHeight="1">
       <c r="A13" s="37" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B13" s="37">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="15" customHeight="1">
       <c r="A14" s="37" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B14" s="37">
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="15" customHeight="1">
       <c r="A15" s="37" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B15" s="37">
         <v>564</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="15" customHeight="1">
       <c r="A16" s="37" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B16" s="37">
         <v>745</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="15" customHeight="1">
       <c r="A17" s="37" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B17" s="37">
         <v>778</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="15" customHeight="1">
       <c r="A18" s="37" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B18" s="37">
         <v>799</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="15" customHeight="1">
       <c r="A19" s="37" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B19" s="37">
         <v>890</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="15" customHeight="1">
       <c r="A20" s="37" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B20" s="37">
         <v>931</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="15" customHeight="1">
       <c r="A21" s="37" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B21" s="37">
         <v>955</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="15" customHeight="1">
       <c r="A22" s="37" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B22" s="37">
         <v>976</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" ht="15" customHeight="1">
       <c r="A23" s="37" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B23" s="37">
         <v>983</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" ht="15" customHeight="1">
       <c r="A24" s="37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" s="37">
         <v>1021</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="15" customHeight="1">
       <c r="A25" s="37" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B25" s="37">
         <v>1040</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" ht="15" customHeight="1">
       <c r="A26" s="37" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B26" s="37">
         <v>1120</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" ht="15" customHeight="1">
       <c r="A27" s="37" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B27" s="37">
         <v>1147</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" ht="15" customHeight="1">
       <c r="A28" s="37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B28" s="37">
         <v>1171</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" ht="13.2">
       <c r="A29" s="37" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B29" s="37">
         <v>1221</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" ht="13.2">
       <c r="A30" s="37" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B30" s="37">
         <v>1228</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" ht="13.2">
       <c r="A31" s="37" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B31" s="37">
         <v>1257</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" ht="13.2">
       <c r="A32" s="37" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B32" s="37">
         <v>1289</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" ht="13.2">
       <c r="A33" s="37" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B33" s="37">
         <v>1291</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" ht="13.2">
       <c r="A34" s="37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B34" s="37">
         <v>1308</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" ht="13.2">
       <c r="A35" s="37" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B35" s="37">
         <v>1318</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" ht="13.2">
       <c r="A36" s="37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B36" s="37">
         <v>1319</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" ht="13.2">
       <c r="A37" s="37" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B37" s="37">
         <v>1322</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" ht="13.2">
       <c r="A38" s="37" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B38" s="37">
         <v>1352</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" ht="13.2">
       <c r="A39" s="37" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B39" s="37">
         <v>1379</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" ht="13.2">
       <c r="A40" s="37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B40" s="37">
         <v>1384</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" ht="13.2">
       <c r="A41" s="37" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B41" s="37">
         <v>1446</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" ht="13.2">
       <c r="A42" s="37" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B42" s="37">
         <v>1464</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" ht="13.2">
       <c r="A43" s="37" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B43" s="37">
         <v>1468</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" ht="13.2">
       <c r="A44" s="37" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B44" s="37">
         <v>1471</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" ht="13.2">
       <c r="A45" s="37" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B45" s="37">
         <v>1497</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" ht="13.2">
       <c r="A46" s="37" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B46" s="37">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" ht="13.2">
       <c r="A47" s="37" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B47" s="37">
         <v>1501</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" ht="13.2">
       <c r="A48" s="37" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B48" s="37">
         <v>1525</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" ht="13.2">
       <c r="A49" s="37" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B49" s="37">
         <v>1527</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" ht="13.2">
       <c r="A50" s="37" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B50" s="37">
         <v>1529</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" ht="13.2">
       <c r="A51" s="37" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B51" s="37">
         <v>1536</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" ht="13.2">
       <c r="A52" s="37" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B52" s="37">
         <v>1550</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" ht="13.2">
       <c r="A53" s="37" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B53" s="37">
         <v>1566</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" ht="13.2">
       <c r="A54" s="37" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B54" s="37">
         <v>1575</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" ht="13.2">
       <c r="A55" s="37" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B55" s="37">
         <v>1592</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" ht="13.2">
       <c r="A56" s="37" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B56" s="37">
         <v>1600</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" ht="13.2">
       <c r="A57" s="37" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B57" s="37">
         <v>1612</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" ht="13.2">
       <c r="A58" s="37" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B58" s="37">
         <v>1616</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" ht="13.2">
       <c r="A59" s="37" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B59" s="37">
         <v>1639</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" ht="13.2">
       <c r="A60" s="37" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B60" s="37">
         <v>1643</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" ht="13.2">
       <c r="A61" s="37" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B61" s="37">
         <v>1645</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" ht="13.2">
       <c r="A62" s="37" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B62" s="37">
         <v>1670</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" ht="13.2">
       <c r="A63" s="37" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B63" s="37">
         <v>1700</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" ht="13.2">
       <c r="A64" s="37" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B64" s="37">
         <v>1706</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" ht="13.2">
       <c r="A65" s="37" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B65" s="37">
         <v>1710</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" ht="13.2">
       <c r="A66" s="37" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B66" s="37">
         <v>1711</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" ht="13.2">
       <c r="A67" s="37" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B67" s="37">
         <v>1716</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" ht="13.2">
       <c r="A68" s="37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B68" s="37">
         <v>1728</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" ht="13.2">
       <c r="A69" s="37" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B69" s="37">
         <v>1736</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" ht="13.2">
       <c r="A70" s="37" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B70" s="37">
         <v>1743</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" ht="13.2">
       <c r="A71" s="37" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B71" s="37">
         <v>1778</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" ht="13.2">
       <c r="A72" s="37" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B72" s="37">
         <v>1782</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" ht="13.2">
       <c r="A73" s="37" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B73" s="37">
         <v>1806</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" ht="13.2">
       <c r="A74" s="37" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B74" s="37">
         <v>1839</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" ht="13.2">
       <c r="A75" s="37" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B75" s="37">
         <v>1842</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" ht="13.2">
       <c r="A76" s="37" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B76" s="37">
         <v>1854</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" ht="13.2">
       <c r="A77" s="37" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B77" s="37">
         <v>1856</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" ht="13.2">
       <c r="A78" s="37" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B78" s="37">
         <v>1868</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" ht="13.2">
       <c r="A79" s="37" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B79" s="37">
         <v>1873</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" ht="13.2">
       <c r="A80" s="37" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B80" s="37">
         <v>1896</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" ht="13.2">
       <c r="A81" s="37" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B81" s="37">
         <v>1899</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" ht="13.2">
       <c r="A82" s="37" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B82" s="37">
         <v>1920</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" ht="13.2">
       <c r="A83" s="37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B83" s="48">
         <v>1927</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" ht="13.2">
       <c r="A84" s="37" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B84" s="48">
         <v>1933</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" ht="13.2">
       <c r="A85" s="37" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B85" s="48">
         <v>1934</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" ht="13.2">
       <c r="A86" s="37" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B86" s="48">
         <v>1942</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" ht="13.2">
       <c r="A87" s="37" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B87" s="48">
         <v>1946</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" ht="13.2">
       <c r="A88" s="37" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B88" s="48">
         <v>1948</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" ht="13.2">
       <c r="A89" s="37" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B89" s="48">
         <v>1949</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" ht="13.2">
       <c r="A90" s="37" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B90" s="48">
         <v>1958</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" ht="13.2">
       <c r="A91" s="37" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B91" s="37">
         <v>1960</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" ht="13.2">
       <c r="A92" s="37" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B92" s="48">
         <v>1975</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" ht="13.2">
       <c r="A93" s="37" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B93" s="48">
         <v>1988</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" ht="13.2">
       <c r="A94" s="37" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B94" s="48">
         <v>1990</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" ht="13.2">
       <c r="A95" s="37" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B95" s="48">
         <v>1991</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" ht="13.2">
       <c r="A96" s="37" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B96" s="48">
         <v>1992</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" ht="13.2">
       <c r="A97" s="37" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B97" s="48">
         <v>1994</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" ht="13.2">
       <c r="A98" s="37" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B98" s="48">
         <v>2007</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" ht="13.2">
       <c r="A99" s="37" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B99" s="37">
         <v>2009</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" ht="13.2">
       <c r="A100" s="37" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B100" s="37">
         <v>2010</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" ht="13.2">
       <c r="A101" s="37" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B101" s="37">
         <v>2011</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" ht="13.2">
       <c r="A102" s="37" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B102" s="37">
         <v>2013</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" ht="13.2">
       <c r="A103" s="37" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B103" s="37">
         <v>2014</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" ht="13.2">
       <c r="A104" s="37" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B104" s="37">
         <v>2026</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" ht="13.2">
       <c r="A105" s="37" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B105" s="37">
         <v>2029</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" ht="13.2">
       <c r="A106" s="37" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B106" s="37">
         <v>2031</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" ht="13.2">
       <c r="A107" s="37" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B107" s="37">
         <v>2034</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" ht="13.2">
       <c r="A108" s="37" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B108" s="37">
         <v>2035</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" ht="13.2">
       <c r="A109" s="37" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B109" s="37">
         <v>2037</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" ht="13.2">
       <c r="A110" s="37" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B110" s="37">
         <v>2038</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" ht="13.2">
       <c r="A111" s="37" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B111" s="37">
         <v>2039</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" ht="13.2">
       <c r="A112" s="37" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B112" s="37">
         <v>2040</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" ht="13.2">
       <c r="A113" s="37" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B113" s="37">
         <v>2041</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" ht="13.2">
       <c r="A114" s="37" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B114" s="37">
         <v>2042</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" ht="13.2">
       <c r="A115" s="37" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B115" s="37">
         <v>2044</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" ht="13.2">
       <c r="A116" s="37" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B116" s="37">
         <v>2048</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" ht="13.2">
       <c r="A117" s="37" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B117" s="37">
         <v>2049</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" ht="13.2">
       <c r="A118" s="37" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B118" s="37">
         <v>2051</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" ht="13.2">
       <c r="A119" s="37" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B119" s="37">
         <v>2052</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" ht="13.2">
       <c r="A120" s="37" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B120" s="37">
         <v>2053</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" ht="13.2">
       <c r="A121" s="37" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B121" s="37">
         <v>2055</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" ht="13.2">
       <c r="A122" s="37" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B122" s="37">
         <v>2056</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" ht="13.2">
       <c r="A123" s="37" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B123" s="37">
         <v>2057</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" ht="13.2">
       <c r="A124" s="37" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B124" s="37">
         <v>2058</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" ht="13.2">
       <c r="A125" s="37" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B125" s="37">
         <v>2059</v>
@@ -32544,62 +32399,62 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1">
+      <c r="A2" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1">
+      <c r="A3" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1">
+      <c r="A4" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1">
+      <c r="A5" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1">
+      <c r="A6" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B6" s="37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1">
+      <c r="A7" s="37" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="37" t="s">
+      <c r="B7" s="37" t="s">
         <v>179</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -32613,104 +32468,104 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="10.140625" style="38" customWidth="1"/>
-    <col min="3" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="6" width="10.140625" style="38" customWidth="1"/>
-    <col min="7" max="22" width="10.140625" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" style="38" customWidth="1"/>
-    <col min="24" max="26" width="10.140625" customWidth="1"/>
-    <col min="27" max="27" width="10.140625" style="38" customWidth="1"/>
-    <col min="28" max="28" width="10.140625" customWidth="1"/>
-    <col min="29" max="31" width="10.140625" style="38" customWidth="1"/>
-    <col min="32" max="44" width="7.5703125" customWidth="1"/>
+    <col min="1" max="2" width="10.109375" style="38" customWidth="1"/>
+    <col min="3" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="6" width="10.109375" style="38" customWidth="1"/>
+    <col min="7" max="22" width="10.109375" customWidth="1"/>
+    <col min="23" max="23" width="10.109375" style="38" customWidth="1"/>
+    <col min="24" max="26" width="10.109375" customWidth="1"/>
+    <col min="27" max="27" width="10.109375" style="38" customWidth="1"/>
+    <col min="28" max="28" width="10.109375" customWidth="1"/>
+    <col min="29" max="31" width="10.109375" style="38" customWidth="1"/>
+    <col min="32" max="44" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="12.75" customHeight="1">
       <c r="A1" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="L1" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="M1" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="N1" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="O1" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="P1" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="Q1" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="R1" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="S1" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="T1" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="U1" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="V1" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="W1" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="X1" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="Y1" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="Z1" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="Q1" s="51" t="s">
+      <c r="AA1" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="AB1" s="51" t="s">
         <v>207</v>
-      </c>
-      <c r="S1" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="T1" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="U1" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="V1" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="W1" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="X1" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y1" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z1" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA1" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="AB1" s="51" t="s">
-        <v>217</v>
       </c>
       <c r="AC1" s="37"/>
       <c r="AD1" s="37"/>
@@ -32721,10 +32576,10 @@
     </row>
     <row r="2" spans="1:31" ht="12.75" customHeight="1">
       <c r="A2" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C2" s="48">
         <v>130851</v>
@@ -32810,10 +32665,10 @@
     </row>
     <row r="3" spans="1:31" ht="12.75" customHeight="1">
       <c r="A3" s="37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C3" s="48">
         <v>585347</v>
@@ -32899,10 +32754,10 @@
     </row>
     <row r="4" spans="1:31" ht="12.75" customHeight="1">
       <c r="A4" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C4" s="48">
         <v>585671</v>
@@ -33087,7 +32942,7 @@
         <v>120820</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="H6" s="37">
         <v>120747</v>
@@ -33172,7 +33027,7 @@
         <v>199000</v>
       </c>
       <c r="G7" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="H7" s="37">
         <v>120820</v>
@@ -33211,13 +33066,13 @@
         <v>620068</v>
       </c>
       <c r="T7" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="U7" s="37">
         <v>504592</v>
       </c>
       <c r="V7" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="W7" s="37">
         <v>120610</v>
@@ -33257,7 +33112,7 @@
         <v>120747</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="H8" s="48">
         <v>120860</v>
@@ -33296,13 +33151,13 @@
         <v>561170</v>
       </c>
       <c r="T8" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="U8" s="37">
         <v>562413</v>
       </c>
       <c r="V8" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="W8" s="37">
         <v>114286</v>
@@ -33342,7 +33197,7 @@
         <v>120860</v>
       </c>
       <c r="G9" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="H9" s="48">
         <v>199000</v>
@@ -33357,7 +33212,7 @@
         <v>655011</v>
       </c>
       <c r="L9" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="M9" s="37">
         <v>655125</v>
@@ -33381,13 +33236,13 @@
         <v>655120</v>
       </c>
       <c r="T9" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="U9" s="37">
         <v>562414</v>
       </c>
       <c r="V9" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="W9" s="37">
         <v>114249</v>
@@ -33427,7 +33282,7 @@
         <v>120785</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="H10" s="48">
         <v>202055</v>
@@ -33442,7 +33297,7 @@
         <v>17</v>
       </c>
       <c r="L10" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="M10" s="48">
         <v>17</v>
@@ -33466,13 +33321,13 @@
         <v>634401</v>
       </c>
       <c r="T10" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="U10" s="37">
         <v>562415</v>
       </c>
       <c r="V10" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="W10" s="37">
         <v>114255</v>
@@ -33512,7 +33367,7 @@
         <v>120562</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H11" s="48">
         <v>380201</v>
@@ -33524,13 +33379,13 @@
         <v>388051</v>
       </c>
       <c r="K11" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="L11" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="M11" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="N11" s="37">
         <v>634401</v>
@@ -33551,19 +33406,19 @@
         <v>634402</v>
       </c>
       <c r="T11" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="U11" s="37">
         <v>530161</v>
       </c>
       <c r="V11" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="W11" s="37">
         <v>114280</v>
       </c>
       <c r="X11" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="Y11" s="37">
         <v>504566</v>
@@ -33597,7 +33452,7 @@
         <v>120563</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="H12" s="48">
         <v>380205</v>
@@ -33609,13 +33464,13 @@
         <v>388051</v>
       </c>
       <c r="K12" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="L12" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="M12" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="N12" s="37">
         <v>561201</v>
@@ -33630,25 +33485,25 @@
         <v>17</v>
       </c>
       <c r="R12" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="S12" s="37">
         <v>634360</v>
       </c>
       <c r="T12" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="U12" s="37">
         <v>562416</v>
       </c>
       <c r="V12" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="W12" s="37">
         <v>120784</v>
       </c>
       <c r="X12" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="Y12" s="37">
         <v>504581</v>
@@ -33660,7 +33515,7 @@
         <v>120784</v>
       </c>
       <c r="AB12" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AC12" s="37"/>
       <c r="AD12" s="37"/>
@@ -33682,7 +33537,7 @@
         <v>492654</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="H13" s="48">
         <v>380218</v>
@@ -33694,13 +33549,13 @@
         <v>717001</v>
       </c>
       <c r="K13" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="L13" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="M13" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="N13" s="48">
         <v>561203</v>
@@ -33712,28 +33567,28 @@
         <v>130850</v>
       </c>
       <c r="Q13" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="R13" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="S13" s="37">
         <v>634419</v>
       </c>
       <c r="T13" s="37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="U13" s="37">
         <v>504619</v>
       </c>
       <c r="V13" s="37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="W13" s="37">
         <v>130941</v>
       </c>
       <c r="X13" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="Y13" s="37">
         <v>562012</v>
@@ -33745,7 +33600,7 @@
         <v>120800</v>
       </c>
       <c r="AB13" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="AC13" s="37"/>
       <c r="AD13" s="37"/>
@@ -33777,13 +33632,13 @@
         <v>390536</v>
       </c>
       <c r="K14" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="L14" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="M14" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="N14" s="37">
         <v>561163</v>
@@ -33795,28 +33650,28 @@
         <v>130942</v>
       </c>
       <c r="Q14" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="R14" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="S14" s="37">
         <v>388051</v>
       </c>
       <c r="T14" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="U14" s="37">
         <v>561123</v>
       </c>
       <c r="V14" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="W14" s="37">
         <v>130942</v>
       </c>
       <c r="X14" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="Y14" s="37">
         <v>562013</v>
@@ -33828,7 +33683,7 @@
         <v>120555</v>
       </c>
       <c r="AB14" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="AC14" s="37"/>
       <c r="AD14" s="37"/>
@@ -33854,19 +33709,19 @@
         <v>492654</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="J15" s="37">
         <v>799097</v>
       </c>
       <c r="K15" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="L15" s="37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="M15" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="N15" s="37">
         <v>561141</v>
@@ -33878,10 +33733,10 @@
         <v>210019</v>
       </c>
       <c r="Q15" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="R15" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="S15" s="37">
         <v>717001</v>
@@ -33895,19 +33750,19 @@
         <v>110800</v>
       </c>
       <c r="X15" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="Y15" s="37">
         <v>530160</v>
       </c>
       <c r="Z15" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AA15" s="37">
         <v>120562</v>
       </c>
       <c r="AB15" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="AC15" s="37"/>
       <c r="AD15" s="37"/>
@@ -33933,19 +33788,19 @@
         <v>504515</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="J16" s="37">
         <v>974008</v>
       </c>
       <c r="K16" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="L16" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="M16" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="N16" s="37">
         <v>504570</v>
@@ -33957,10 +33812,10 @@
         <v>571200</v>
       </c>
       <c r="Q16" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="R16" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="S16" s="37">
         <v>390536</v>
@@ -33974,19 +33829,19 @@
         <v>210019</v>
       </c>
       <c r="X16" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="Y16" s="37">
         <v>585405</v>
       </c>
       <c r="Z16" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="AA16" s="37">
         <v>120563</v>
       </c>
       <c r="AB16" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="AC16" s="37"/>
       <c r="AD16" s="37"/>
@@ -34010,17 +33865,17 @@
         <v>504516</v>
       </c>
       <c r="I17" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="J17" s="48">
         <v>110701</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="L17" s="48"/>
       <c r="M17" s="37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="N17" s="48">
         <v>504577</v>
@@ -34032,36 +33887,36 @@
         <v>201030</v>
       </c>
       <c r="Q17" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="R17" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="S17" s="48">
         <v>110701</v>
       </c>
       <c r="T17" s="37"/>
       <c r="U17" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="V17" s="37"/>
       <c r="W17" s="37">
         <v>571200</v>
       </c>
       <c r="X17" s="37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="Y17" s="37">
         <v>585412</v>
       </c>
       <c r="Z17" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="AA17" s="37">
         <v>492654</v>
       </c>
       <c r="AB17" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="3:28" ht="12.75" customHeight="1">
@@ -34069,7 +33924,7 @@
         <v>561149</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E18" s="48">
         <v>492655</v>
@@ -34082,17 +33937,17 @@
         <v>504546</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="J18" s="48">
         <v>110702</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="L18" s="48"/>
       <c r="M18" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="N18" s="48">
         <v>599203</v>
@@ -34104,36 +33959,36 @@
         <v>201032</v>
       </c>
       <c r="Q18" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="R18" s="37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="S18" s="48">
         <v>110702</v>
       </c>
       <c r="T18" s="37"/>
       <c r="U18" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="V18" s="37"/>
       <c r="W18" s="37">
         <v>862102</v>
       </c>
       <c r="X18" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="Y18" s="37">
         <v>585424</v>
       </c>
       <c r="Z18" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="AA18" s="37">
         <v>130841</v>
       </c>
       <c r="AB18" s="37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="3:28" ht="12.75" customHeight="1">
@@ -34141,7 +33996,7 @@
         <v>561154</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E19" s="48">
         <v>492664</v>
@@ -34154,7 +34009,7 @@
         <v>504550</v>
       </c>
       <c r="I19" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="J19" s="48">
         <v>110703</v>
@@ -34172,17 +34027,17 @@
         <v>301312</v>
       </c>
       <c r="Q19" s="37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="R19" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="S19" s="48">
         <v>110703</v>
       </c>
       <c r="T19" s="37"/>
       <c r="U19" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="V19" s="37"/>
       <c r="W19" s="48">
@@ -34193,13 +34048,13 @@
         <v>17</v>
       </c>
       <c r="Z19" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="AA19" s="37">
         <v>120630</v>
       </c>
       <c r="AB19" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="3:28" ht="12.75" customHeight="1">
@@ -34207,7 +34062,7 @@
         <v>561155</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E20" s="48">
         <v>492665</v>
@@ -34220,7 +34075,7 @@
         <v>504558</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="J20" s="48">
         <v>110704</v>
@@ -34238,7 +34093,7 @@
         <v>380207</v>
       </c>
       <c r="Q20" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="R20" s="37"/>
       <c r="S20" s="48">
@@ -34246,7 +34101,7 @@
       </c>
       <c r="T20" s="37"/>
       <c r="U20" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="V20" s="37"/>
       <c r="W20" s="48">
@@ -34254,10 +34109,10 @@
       </c>
       <c r="X20" s="37"/>
       <c r="Y20" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="Z20" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AA20" s="37">
         <v>120631</v>
@@ -34269,7 +34124,7 @@
         <v>561156</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E21" s="48">
         <v>492675</v>
@@ -34282,7 +34137,7 @@
         <v>504564</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="J21" s="48">
         <v>110705</v>
@@ -34306,7 +34161,7 @@
       </c>
       <c r="T21" s="37"/>
       <c r="U21" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="V21" s="37"/>
       <c r="W21" s="48">
@@ -34314,10 +34169,10 @@
       </c>
       <c r="X21" s="37"/>
       <c r="Y21" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="Z21" s="37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="AA21" s="37">
         <v>120502</v>
@@ -34329,7 +34184,7 @@
         <v>561157</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E22" s="48">
         <v>492701</v>
@@ -34342,7 +34197,7 @@
         <v>504582</v>
       </c>
       <c r="I22" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="J22" s="48">
         <v>634409</v>
@@ -34366,7 +34221,7 @@
       </c>
       <c r="T22" s="37"/>
       <c r="U22" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="V22" s="37"/>
       <c r="W22" s="37">
@@ -34374,10 +34229,10 @@
       </c>
       <c r="X22" s="37"/>
       <c r="Y22" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="Z22" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="AA22" s="37">
         <v>201050</v>
@@ -34389,7 +34244,7 @@
         <v>562400</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E23" s="48">
         <v>492722</v>
@@ -34420,11 +34275,11 @@
       <c r="Q23" s="48"/>
       <c r="R23" s="48"/>
       <c r="S23" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="T23" s="48"/>
       <c r="U23" s="37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="V23" s="37"/>
       <c r="W23" s="37">
@@ -34432,7 +34287,7 @@
       </c>
       <c r="X23" s="37"/>
       <c r="Y23" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="Z23" s="37"/>
       <c r="AA23" s="37">
@@ -34445,7 +34300,7 @@
         <v>562401</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E24" s="48">
         <v>492723</v>
@@ -34476,11 +34331,11 @@
       <c r="Q24" s="48"/>
       <c r="R24" s="48"/>
       <c r="S24" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="T24" s="48"/>
       <c r="U24" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="V24" s="37"/>
       <c r="W24" s="37">
@@ -34488,7 +34343,7 @@
       </c>
       <c r="X24" s="37"/>
       <c r="Y24" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="Z24" s="37"/>
       <c r="AA24" s="37">
@@ -34501,7 +34356,7 @@
         <v>562402</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E25" s="48">
         <v>492724</v>
@@ -34515,7 +34370,7 @@
       </c>
       <c r="I25" s="48"/>
       <c r="J25" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="K25" s="48"/>
       <c r="L25" s="48"/>
@@ -34532,7 +34387,7 @@
       <c r="Q25" s="48"/>
       <c r="R25" s="48"/>
       <c r="S25" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="T25" s="48"/>
       <c r="U25" s="48"/>
@@ -34542,7 +34397,7 @@
       </c>
       <c r="X25" s="48"/>
       <c r="Y25" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="Z25" s="37"/>
       <c r="AA25" s="37">
@@ -34567,7 +34422,7 @@
       </c>
       <c r="I26" s="48"/>
       <c r="J26" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="K26" s="48"/>
       <c r="L26" s="48"/>
@@ -34584,7 +34439,7 @@
       <c r="Q26" s="48"/>
       <c r="R26" s="48"/>
       <c r="S26" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="T26" s="48"/>
       <c r="U26" s="48"/>
@@ -34594,7 +34449,7 @@
       </c>
       <c r="X26" s="48"/>
       <c r="Y26" s="37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="Z26" s="37"/>
       <c r="AA26" s="37">
@@ -34619,7 +34474,7 @@
       </c>
       <c r="I27" s="48"/>
       <c r="J27" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="K27" s="48"/>
       <c r="L27" s="48"/>
@@ -34636,7 +34491,7 @@
       <c r="Q27" s="48"/>
       <c r="R27" s="48"/>
       <c r="S27" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="T27" s="48"/>
       <c r="U27" s="48"/>
@@ -34646,7 +34501,7 @@
       </c>
       <c r="X27" s="48"/>
       <c r="Y27" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="Z27" s="37"/>
       <c r="AA27" s="37">
@@ -34671,13 +34526,13 @@
       </c>
       <c r="I28" s="48"/>
       <c r="J28" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="K28" s="48"/>
       <c r="L28" s="48"/>
       <c r="M28" s="48"/>
       <c r="N28" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="O28" s="37">
         <v>504530</v>
@@ -34688,7 +34543,7 @@
       <c r="Q28" s="48"/>
       <c r="R28" s="48"/>
       <c r="S28" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="T28" s="37"/>
       <c r="U28" s="37"/>
@@ -34721,13 +34576,13 @@
       </c>
       <c r="I29" s="48"/>
       <c r="J29" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="K29" s="48"/>
       <c r="L29" s="48"/>
       <c r="M29" s="48"/>
       <c r="N29" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="O29" s="37">
         <v>504560</v>
@@ -34738,7 +34593,7 @@
       <c r="Q29" s="48"/>
       <c r="R29" s="48"/>
       <c r="S29" s="37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="T29" s="37"/>
       <c r="U29" s="37"/>
@@ -34771,13 +34626,13 @@
       </c>
       <c r="I30" s="48"/>
       <c r="J30" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
       <c r="M30" s="37"/>
       <c r="N30" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="O30" s="48">
         <v>504513</v>
@@ -34788,7 +34643,7 @@
       <c r="Q30" s="37"/>
       <c r="R30" s="37"/>
       <c r="S30" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="T30" s="37"/>
       <c r="U30" s="37"/>
@@ -34821,13 +34676,13 @@
       </c>
       <c r="I31" s="48"/>
       <c r="J31" s="37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="K31" s="37"/>
       <c r="L31" s="37"/>
       <c r="M31" s="37"/>
       <c r="N31" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="O31" s="48">
         <v>504543</v>
@@ -34869,13 +34724,13 @@
       </c>
       <c r="I32" s="48"/>
       <c r="J32" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="K32" s="37"/>
       <c r="L32" s="37"/>
       <c r="M32" s="37"/>
       <c r="N32" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="O32" s="48">
         <v>504600</v>
@@ -34921,7 +34776,7 @@
       <c r="L33" s="48"/>
       <c r="M33" s="48"/>
       <c r="N33" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="O33" s="48">
         <v>530112</v>
@@ -34967,7 +34822,7 @@
       <c r="L34" s="48"/>
       <c r="M34" s="48"/>
       <c r="N34" s="37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="O34" s="48">
         <v>561115</v>
@@ -35013,7 +34868,7 @@
       <c r="L35" s="48"/>
       <c r="M35" s="48"/>
       <c r="N35" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="O35" s="48">
         <v>562004</v>
@@ -35799,7 +35654,7 @@
       </c>
       <c r="G53" s="48"/>
       <c r="H53" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="I53" s="48"/>
       <c r="J53" s="48"/>
@@ -35843,7 +35698,7 @@
       </c>
       <c r="G54" s="48"/>
       <c r="H54" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="I54" s="48"/>
       <c r="J54" s="48"/>
@@ -35887,7 +35742,7 @@
       </c>
       <c r="G55" s="48"/>
       <c r="H55" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="I55" s="48"/>
       <c r="J55" s="48"/>
@@ -35931,7 +35786,7 @@
       </c>
       <c r="G56" s="48"/>
       <c r="H56" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="I56" s="48"/>
       <c r="J56" s="48"/>
@@ -35975,7 +35830,7 @@
       </c>
       <c r="G57" s="48"/>
       <c r="H57" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="I57" s="48"/>
       <c r="J57" s="48"/>
@@ -36019,7 +35874,7 @@
       </c>
       <c r="G58" s="48"/>
       <c r="H58" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="I58" s="37"/>
       <c r="J58" s="37"/>
@@ -36031,7 +35886,7 @@
         <v>801130</v>
       </c>
       <c r="P58" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="Q58" s="37"/>
       <c r="R58" s="37"/>
@@ -36063,7 +35918,7 @@
       </c>
       <c r="G59" s="48"/>
       <c r="H59" s="37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="I59" s="37"/>
       <c r="J59" s="37"/>
@@ -36075,7 +35930,7 @@
         <v>801135</v>
       </c>
       <c r="P59" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="Q59" s="37"/>
       <c r="R59" s="37"/>
@@ -36096,7 +35951,7 @@
     </row>
     <row r="60" spans="3:28" ht="12.75" customHeight="1">
       <c r="C60" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D60" s="37"/>
       <c r="E60" s="48">
@@ -36107,7 +35962,7 @@
       </c>
       <c r="G60" s="48"/>
       <c r="H60" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="I60" s="37"/>
       <c r="J60" s="37"/>
@@ -36119,7 +35974,7 @@
         <v>801104</v>
       </c>
       <c r="P60" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="Q60" s="37"/>
       <c r="R60" s="37"/>
@@ -36140,7 +35995,7 @@
     </row>
     <row r="61" spans="3:28" ht="12.75" customHeight="1">
       <c r="C61" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D61" s="37"/>
       <c r="E61" s="48">
@@ -36161,7 +36016,7 @@
         <v>17</v>
       </c>
       <c r="P61" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="Q61" s="48"/>
       <c r="R61" s="48"/>
@@ -36182,7 +36037,7 @@
     </row>
     <row r="62" spans="3:28" ht="12.75" customHeight="1">
       <c r="C62" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D62" s="37"/>
       <c r="E62" s="48">
@@ -36200,10 +36055,10 @@
       <c r="M62" s="48"/>
       <c r="N62" s="48"/>
       <c r="O62" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="P62" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="Q62" s="48"/>
       <c r="R62" s="48"/>
@@ -36224,7 +36079,7 @@
     </row>
     <row r="63" spans="3:28" ht="12.75" customHeight="1">
       <c r="C63" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D63" s="37"/>
       <c r="E63" s="48">
@@ -36242,10 +36097,10 @@
       <c r="M63" s="48"/>
       <c r="N63" s="48"/>
       <c r="O63" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="P63" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="Q63" s="37"/>
       <c r="R63" s="37"/>
@@ -36266,7 +36121,7 @@
     </row>
     <row r="64" spans="3:28" ht="12.75" customHeight="1">
       <c r="C64" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D64" s="37"/>
       <c r="E64" s="48">
@@ -36284,10 +36139,10 @@
       <c r="M64" s="48"/>
       <c r="N64" s="48"/>
       <c r="O64" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="P64" s="37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="Q64" s="37"/>
       <c r="R64" s="37"/>
@@ -36308,7 +36163,7 @@
     </row>
     <row r="65" spans="3:28" ht="12.75" customHeight="1">
       <c r="C65" s="48" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D65" s="37"/>
       <c r="E65" s="48">
@@ -36326,10 +36181,10 @@
       <c r="M65" s="48"/>
       <c r="N65" s="48"/>
       <c r="O65" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="P65" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="Q65" s="37"/>
       <c r="R65" s="37"/>
@@ -36350,7 +36205,7 @@
     </row>
     <row r="66" spans="3:28" ht="12.75" customHeight="1">
       <c r="C66" s="48" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D66" s="37"/>
       <c r="E66" s="48">
@@ -36368,7 +36223,7 @@
       <c r="M66" s="48"/>
       <c r="N66" s="48"/>
       <c r="O66" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="P66" s="48"/>
       <c r="Q66" s="48"/>
@@ -36390,7 +36245,7 @@
     </row>
     <row r="67" spans="3:28" ht="12.75" customHeight="1">
       <c r="C67" s="48" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D67" s="37"/>
       <c r="E67" s="48">
@@ -36408,7 +36263,7 @@
       <c r="M67" s="48"/>
       <c r="N67" s="48"/>
       <c r="O67" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="P67" s="37"/>
       <c r="Q67" s="37"/>
@@ -36446,7 +36301,7 @@
       <c r="M68" s="48"/>
       <c r="N68" s="48"/>
       <c r="O68" s="37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="P68" s="37"/>
       <c r="Q68" s="37"/>
@@ -36484,7 +36339,7 @@
       <c r="M69" s="48"/>
       <c r="N69" s="48"/>
       <c r="O69" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="P69" s="37"/>
       <c r="Q69" s="37"/>
@@ -36691,7 +36546,7 @@
         <v>571086</v>
       </c>
       <c r="F75" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G75" s="48"/>
       <c r="H75" s="48"/>
@@ -36727,7 +36582,7 @@
         <v>571087</v>
       </c>
       <c r="F76" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="G76" s="48"/>
       <c r="H76" s="48"/>
@@ -36746,7 +36601,7 @@
       <c r="U76" s="48"/>
       <c r="V76" s="48"/>
       <c r="W76" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="X76" s="48"/>
       <c r="Y76" s="48"/>
@@ -36763,7 +36618,7 @@
         <v>571088</v>
       </c>
       <c r="F77" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="G77" s="48"/>
       <c r="H77" s="48"/>
@@ -36782,7 +36637,7 @@
       <c r="U77" s="48"/>
       <c r="V77" s="48"/>
       <c r="W77" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="X77" s="48"/>
       <c r="Y77" s="48"/>
@@ -36799,7 +36654,7 @@
         <v>571089</v>
       </c>
       <c r="F78" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="G78" s="48"/>
       <c r="H78" s="48"/>
@@ -36818,7 +36673,7 @@
       <c r="U78" s="48"/>
       <c r="V78" s="48"/>
       <c r="W78" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="X78" s="48"/>
       <c r="Y78" s="48"/>
@@ -36835,7 +36690,7 @@
         <v>571100</v>
       </c>
       <c r="F79" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="G79" s="48"/>
       <c r="H79" s="48"/>
@@ -36854,7 +36709,7 @@
       <c r="U79" s="48"/>
       <c r="V79" s="48"/>
       <c r="W79" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="X79" s="48"/>
       <c r="Y79" s="48"/>
@@ -36871,7 +36726,7 @@
         <v>571101</v>
       </c>
       <c r="F80" s="48" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G80" s="48"/>
       <c r="H80" s="48"/>
@@ -36890,7 +36745,7 @@
       <c r="U80" s="48"/>
       <c r="V80" s="48"/>
       <c r="W80" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="X80" s="48"/>
       <c r="Y80" s="48"/>
@@ -36907,7 +36762,7 @@
         <v>571102</v>
       </c>
       <c r="F81" s="48" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="G81" s="48"/>
       <c r="H81" s="48"/>
@@ -36926,7 +36781,7 @@
       <c r="U81" s="48"/>
       <c r="V81" s="48"/>
       <c r="W81" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="X81" s="48"/>
       <c r="Y81" s="48"/>
@@ -36943,7 +36798,7 @@
         <v>571103</v>
       </c>
       <c r="F82" s="48" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G82" s="48"/>
       <c r="H82" s="48"/>
@@ -36962,7 +36817,7 @@
       <c r="U82" s="48"/>
       <c r="V82" s="48"/>
       <c r="W82" s="37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="X82" s="48"/>
       <c r="Y82" s="48"/>
@@ -36996,7 +36851,7 @@
       <c r="U83" s="37"/>
       <c r="V83" s="37"/>
       <c r="W83" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="X83" s="37"/>
       <c r="Y83" s="37"/>
@@ -38162,7 +38017,7 @@
       <c r="C120" s="37"/>
       <c r="D120" s="37"/>
       <c r="E120" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F120" s="37"/>
       <c r="G120" s="37"/>
@@ -38194,7 +38049,7 @@
       <c r="C121" s="37"/>
       <c r="D121" s="37"/>
       <c r="E121" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F121" s="37"/>
       <c r="G121" s="37"/>
@@ -38226,7 +38081,7 @@
       <c r="C122" s="37"/>
       <c r="D122" s="37"/>
       <c r="E122" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F122" s="37"/>
       <c r="G122" s="37"/>
@@ -38258,7 +38113,7 @@
       <c r="C123" s="37"/>
       <c r="D123" s="37"/>
       <c r="E123" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F123" s="37"/>
       <c r="G123" s="37"/>
@@ -38290,7 +38145,7 @@
       <c r="C124" s="37"/>
       <c r="D124" s="37"/>
       <c r="E124" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F124" s="37"/>
       <c r="G124" s="37"/>
@@ -38322,7 +38177,7 @@
       <c r="C125" s="37"/>
       <c r="D125" s="37"/>
       <c r="E125" s="48" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F125" s="37"/>
       <c r="G125" s="37"/>
@@ -38354,7 +38209,7 @@
       <c r="C126" s="37"/>
       <c r="D126" s="37"/>
       <c r="E126" s="48" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
@@ -38386,7 +38241,7 @@
       <c r="C127" s="37"/>
       <c r="D127" s="37"/>
       <c r="E127" s="48" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
@@ -39370,7 +39225,7 @@
       <c r="Y159" s="37"/>
       <c r="Z159" s="37"/>
       <c r="AA159" s="48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB159" s="37"/>
     </row>
@@ -39400,7 +39255,7 @@
       <c r="Y160" s="37"/>
       <c r="Z160" s="37"/>
       <c r="AA160" s="48" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="AB160" s="37"/>
     </row>
@@ -39430,7 +39285,7 @@
       <c r="Y161" s="37"/>
       <c r="Z161" s="37"/>
       <c r="AA161" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="AB161" s="37"/>
     </row>
@@ -39460,7 +39315,7 @@
       <c r="Y162" s="37"/>
       <c r="Z162" s="37"/>
       <c r="AA162" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="AB162" s="37"/>
     </row>
@@ -39490,7 +39345,7 @@
       <c r="Y163" s="37"/>
       <c r="Z163" s="37"/>
       <c r="AA163" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="AB163" s="37"/>
     </row>
@@ -39520,7 +39375,7 @@
       <c r="Y164" s="37"/>
       <c r="Z164" s="37"/>
       <c r="AA164" s="37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB164" s="37"/>
     </row>
@@ -39550,7 +39405,7 @@
       <c r="Y165" s="37"/>
       <c r="Z165" s="37"/>
       <c r="AA165" s="37" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="AB165" s="37"/>
     </row>
@@ -39580,7 +39435,7 @@
       <c r="Y166" s="37"/>
       <c r="Z166" s="37"/>
       <c r="AA166" s="37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="AB166" s="37"/>
     </row>
@@ -64769,214 +64624,214 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="5" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="5" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="15" customHeight="1">
       <c r="A1" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="K1" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="L1" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="D1" s="37" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
+      <c r="A2" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="B2" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="D2" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G2" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I2" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="J2" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="K2" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="M2" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="37" t="s">
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1">
+      <c r="A3" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="B3" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="D3" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="G3" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="I3" s="37" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="37" t="s">
+      <c r="J3" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="B2" s="37" t="s">
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1">
+      <c r="A4" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1">
+      <c r="A5" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1">
+      <c r="F6" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1">
+      <c r="F7" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1">
+      <c r="I8" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="M2" s="37" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="F6" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="F7" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="I8" s="37" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="20" spans="7:13">
+    </row>
+    <row r="20" spans="7:13" ht="15" customHeight="1">
       <c r="G20" s="39" t="b">
         <f t="array" aca="1" ref="G20" ca="1">IF(Timesheet!A49=A1,INDIRECT("Vulcan"),IF(Timesheet!A49=B1,INDIRECT("Rowen"),IF(Timesheet!A49=C1,INDIRECT("Schuster_Rockville"),IF(Timesheet!A49=D1,INDIRECT("Schuster_Baltimore"), IF(Timesheet!A49=E1, INDIRECT("LaFarge"),IF(Timesheet!A49=F1,INDIRECT("M_Luis_Products"),IF(Timesheet!A49=G1,INDIRECT("MD_Paving"),IF(Timesheet!A49=H1,INDIRECT("Pleasants"),IF(Timesheet!A49=I1,INDIRECT("Martin_Marietta"),IF(Timesheet!A49=J1,INDIRECT("CD_Thomas"),IF(Timesheet!A49=K1,INDIRECT("DC_Materials"), IF(Timesheet!A49=L1,INDIRECT("People_Ready"),IF(Timesheet!A49=M1,INDIRECT("Aggregate"))))))))))))))</f>
         <v>0</v>
@@ -65012,31 +64867,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="37" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="37" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C2" s="40">
         <f>Timesheet!D2</f>
@@ -65047,12 +64902,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="37" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C3" s="40">
         <f>Timesheet!D2</f>
@@ -65063,12 +64918,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="37" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C4" s="40">
         <f>Timesheet!D2</f>
@@ -65079,12 +64934,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="37" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C5" s="40">
         <f>Timesheet!D2</f>
@@ -65109,34 +64964,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="37" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C1" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="D1" s="37" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="A2" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="37" t="s">
-        <v>272</v>
-      </c>
       <c r="B2" s="37" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C2" s="40">
         <f>Timesheet!D2</f>
@@ -65146,7 +65001,7 @@
         <f>Timesheet!B74</f>
         <v>0</v>
       </c>
-      <c r="E2" t="b">
+      <c r="E2">
         <f>Timesheet!Q6</f>
         <v>0</v>
       </c>
@@ -65165,19 +65020,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="85.85546875" customWidth="1"/>
+    <col min="1" max="1" width="85.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="15" customHeight="1">
       <c r="A1" s="37" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" customHeight="1">
       <c r="A2" s="37" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -65186,12 +65041,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="93ee641c-b17f-4463-8650-2dbf6b7fb85f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2b236cc3-e48a-4676-8bed-95aa6d0e4646" xsi:nil="true"/>
+    <Notes xmlns="93ee641c-b17f-4463-8650-2dbf6b7fb85f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65398,25 +65256,48 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="93ee641c-b17f-4463-8650-2dbf6b7fb85f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="2b236cc3-e48a-4676-8bed-95aa6d0e4646" xsi:nil="true"/>
-    <Notes xmlns="93ee641c-b17f-4463-8650-2dbf6b7fb85f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA5DF5A7-60D8-47A8-AA01-F85BB15BAF52}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36990059-0768-450B-B1B9-3EA062E93853}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="93ee641c-b17f-4463-8650-2dbf6b7fb85f"/>
+    <ds:schemaRef ds:uri="2b236cc3-e48a-4676-8bed-95aa6d0e4646"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F685B8B-5363-465A-8AA0-EC8F52F2A9EC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F685B8B-5363-465A-8AA0-EC8F52F2A9EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="93ee641c-b17f-4463-8650-2dbf6b7fb85f"/>
+    <ds:schemaRef ds:uri="2b236cc3-e48a-4676-8bed-95aa6d0e4646"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36990059-0768-450B-B1B9-3EA062E93853}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA5DF5A7-60D8-47A8-AA01-F85BB15BAF52}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>